--- a/Task Management System.xlsx
+++ b/Task Management System.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="25300" windowHeight="14540"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="TestCase" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="TestCase" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="ia1dwrD8rNORZZ318xw3zp4BFUBRNVuCZ2krUKDLe08="/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="130">
   <si>
     <t>Product Name</t>
   </si>
@@ -34,7 +32,7 @@
     <t>Module Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Website </t>
+    <t>Website App</t>
   </si>
   <si>
     <t>TC End Date</t>
@@ -125,26 +123,24 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
-      </rPr>
       <t>1. Goto different browsers 
 2. Search "</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="12"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
       </rPr>
       <t>http://niprojmi.com/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
       </rPr>
       <t>"
 3. Goto the Website</t>
@@ -167,19 +163,16 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <sz val="12.0"/>
-      </rPr>
       <t xml:space="preserve">1. Goto the URL
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
+        <u/>
+        <sz val="12"/>
         <color rgb="FF1155CC"/>
-        <sz val="12.0"/>
-        <u/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
       </rPr>
       <t>http://niprojmi.com/</t>
     </r>
@@ -204,26 +197,24 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <sz val="12.0"/>
-      </rPr>
       <t xml:space="preserve">1. Goto the URL
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
+        <u/>
+        <sz val="12"/>
         <color rgb="FF1155CC"/>
-        <sz val="12.0"/>
-        <u/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
       </rPr>
       <t>http://niprojmi.com/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 2. Click on Login button 
@@ -292,26 +283,24 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <sz val="12.0"/>
-      </rPr>
       <t xml:space="preserve">1. Goto the URL
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
+        <u/>
+        <sz val="12"/>
         <color rgb="FF1155CC"/>
-        <sz val="12.0"/>
-        <u/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
       </rPr>
       <t>http://niprojmi.com/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 2. Click on Login button 
@@ -355,33 +344,41 @@
     <t>Found as per expection</t>
   </si>
   <si>
-    <t>Email: jibon@gmail.com
+    <r>
+      <t xml:space="preserve">Email: jibon@gmail.com
 Password : 887711
-Remember me: ☑</t>
-  </si>
-  <si>
+Remember me: </t>
+    </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
+      <t>☑</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">1. Goto the URL </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;"/>
+        <u/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
-        <sz val="12.0"/>
-        <u/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
       </rPr>
       <t>http://niprojmi.com/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;"/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 
 2. Click on Login button 
@@ -522,15 +519,6 @@
 3. All List</t>
   </si>
   <si>
-    <t>Should be same Footer whole website</t>
-  </si>
-  <si>
-    <t>1. Goto the URL http://niprojmi.com/ 
-2. Click on Login button 
-3. After Login go to Dashboad
-4. Show all page footer</t>
-  </si>
-  <si>
     <t>Verify the same sideber used on whole website pages</t>
   </si>
   <si>
@@ -578,158 +566,315 @@
 3. After Login go to Dashboad
 4. Click admin/user icon</t>
   </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Verify the same Footer used on whole website pages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be same footer whole web app </t>
+  </si>
+  <si>
+    <t>Fond as per expectation</t>
+  </si>
+  <si>
+    <t>1. Goto the URL http://niprojmi.com/ 
+2. Click on Login button 
+3. After Login 
+4. Go to different differnt page</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="38">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-    </font>
-    <font/>
-    <font>
-      <b/>
-      <u/>
-      <sz val="14.0"/>
-      <color rgb="FF0563C1"/>
-      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="14.0"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
+      <color rgb="FF0563C1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Verdana"/>
+      <name val="&quot;Times New Roman&quot;"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="&quot;Times New Roman&quot;"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
-      <color rgb="FF0000FF"/>
+      <sz val="12"/>
+      <color rgb="FF1155CC"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="&quot;Times New Roman&quot;"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Times New Roman&quot;"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -739,6 +884,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor rgb="FF002060"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7B7B7"/>
+        <bgColor rgb="FFB7B7B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6D9F0"/>
         <bgColor rgb="FFC6D9F0"/>
       </patternFill>
@@ -757,12 +938,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF0000"/>
       </patternFill>
@@ -781,55 +956,226 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor rgb="FF002060"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF93C47D"/>
         <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
-        <bgColor rgb="FFBFBFBF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7B7B7"/>
-        <bgColor rgb="FFB7B7B7"/>
+        <fgColor theme="2" tint="-0.35"/>
+        <bgColor rgb="FF93C47D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
-    <border/>
+  <borders count="22">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -839,6 +1185,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -853,49 +1200,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -903,25 +1211,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -933,487 +1223,630 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="73">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="13" fillId="11" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="11" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="11" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="11" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="11" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="11" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="11" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="11" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="12" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="11" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="13" fillId="13" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="13" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="13" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="14" fillId="13" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="14" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="14" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="14" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="14" fillId="14" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="14" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="14" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="12" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="11" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="11" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="11" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="12" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="12" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="15" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="15" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="15" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="20" fillId="15" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="15" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="15" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="15" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="11" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="12" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="15" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="10" fillId="15" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="15" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="15" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="15" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="15" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="15" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="15" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="15" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="15" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="15" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="15" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="15" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1603,38 +2036,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L972"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="7.0" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B9" sqref="B9" pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.86"/>
-    <col customWidth="1" min="2" max="2" width="16.86"/>
-    <col customWidth="1" min="3" max="3" width="33.0"/>
-    <col customWidth="1" min="4" max="4" width="27.86"/>
-    <col customWidth="1" min="5" max="5" width="27.71"/>
-    <col customWidth="1" min="6" max="6" width="25.43"/>
-    <col customWidth="1" min="7" max="7" width="30.86"/>
-    <col customWidth="1" min="8" max="8" width="31.29"/>
-    <col customWidth="1" min="9" max="9" width="25.14"/>
-    <col customWidth="1" min="10" max="10" width="15.14"/>
-    <col customWidth="1" min="11" max="11" width="15.57"/>
-    <col customWidth="1" min="12" max="12" width="14.71"/>
-    <col customWidth="1" min="13" max="26" width="9.0"/>
+    <col min="1" max="1" width="6.859375" customWidth="1"/>
+    <col min="2" max="2" width="16.859375" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="27.859375" customWidth="1"/>
+    <col min="5" max="5" width="31.1171875" customWidth="1"/>
+    <col min="6" max="6" width="25.4296875" customWidth="1"/>
+    <col min="7" max="7" width="30.859375" customWidth="1"/>
+    <col min="8" max="8" width="31.2890625" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="26" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.0" customHeight="1">
+    <row r="1" ht="27" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1645,1021 +2079,1375 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5">
-        <v>45203.0</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="E1" s="35">
+        <v>45203</v>
+      </c>
+      <c r="K1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" ht="30.0" customHeight="1">
+      <c r="L1" s="50"/>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5">
-        <v>45206.0</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="E2" s="35">
+        <v>45206</v>
+      </c>
+      <c r="K2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="10">
-        <f>COUNTIF(K8:K143,"Passed")</f>
+      <c r="L2" s="52">
+        <f>COUNTIF(K8:K142,"Passed")</f>
         <v>26</v>
       </c>
     </row>
-    <row r="3" ht="27.0" customHeight="1">
-      <c r="A3" s="11" t="s">
+    <row r="3" ht="27" customHeight="1" spans="1:12">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="10">
-        <f>COUNTIF(K8:K143,"Failed")</f>
+      <c r="L3" s="52">
+        <f>COUNTIF(K8:K142,"Failed")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
-      <c r="K4" s="16" t="s">
+    <row r="4" ht="20" customHeight="1" spans="11:12">
+      <c r="K4" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="10">
-        <f>COUNTIF(K8:K143,"Not Executed")</f>
+      <c r="L4" s="52">
+        <f>COUNTIF(K8:K142,"Not Executed")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
-      <c r="K5" s="17" t="s">
+    <row r="5" ht="27" customHeight="1" spans="11:12">
+      <c r="K5" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="18">
-        <f>COUNTIF(K8:K143,"Out of Scope")</f>
+      <c r="L5" s="56">
+        <f>COUNTIF(K8:K142,"Out of Scope")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="K6" s="19" t="s">
+    <row r="6" ht="34" customHeight="1" spans="11:12">
+      <c r="K6" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="58">
         <f>SUM(L2:L5)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="21" t="s">
+    <row r="7" ht="20" customHeight="1" spans="1:12">
+      <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="25" t="s">
+      <c r="L7" s="59" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" ht="42.75" customHeight="1">
-      <c r="A8" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28" t="s">
+    <row r="8" ht="40" customHeight="1" spans="1:12">
+      <c r="A8" s="11">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="29" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34" t="s">
+      <c r="J8" s="61"/>
+      <c r="K8" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="35"/>
-    </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
-    </row>
-    <row r="10" ht="33.75" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43" t="s">
+      <c r="L8" s="63"/>
+    </row>
+    <row r="9" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" ht="39" customHeight="1" spans="1:12">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="H10" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="J10" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="46" t="s">
+      <c r="K10" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="47"/>
-    </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="40">
-        <f>sum(1+1)</f>
+      <c r="L10" s="67"/>
+    </row>
+    <row r="11" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+    </row>
+    <row r="12" ht="39" customHeight="1" spans="1:12">
+      <c r="A12" s="16">
+        <f>SUM(1+1)</f>
         <v>2</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="57" t="s">
+      <c r="J12" s="67"/>
+      <c r="K12" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L12" s="47"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="40">
-        <f t="shared" ref="A13:A20" si="1">sum(A12+1)</f>
+      <c r="L12" s="67"/>
+    </row>
+    <row r="13" ht="39" customHeight="1" spans="1:12">
+      <c r="A13" s="16">
+        <f t="shared" ref="A13:A20" si="0">SUM(A12+1)</f>
         <v>3</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="43" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="47"/>
-      <c r="K13" s="57" t="s">
+      <c r="J13" s="67"/>
+      <c r="K13" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="47"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="40">
+      <c r="L13" s="67"/>
+    </row>
+    <row r="14" ht="39" customHeight="1" spans="1:12">
+      <c r="A14" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="67"/>
+      <c r="K14" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="67"/>
+    </row>
+    <row r="15" ht="39" customHeight="1" spans="1:12">
+      <c r="A15" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="67"/>
+      <c r="K15" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="67"/>
+    </row>
+    <row r="16" ht="39" customHeight="1" spans="1:12">
+      <c r="A16" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="67"/>
+      <c r="K16" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="67"/>
+    </row>
+    <row r="17" ht="39" customHeight="1" spans="1:12">
+      <c r="A17" s="16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="67"/>
+      <c r="K17" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="67"/>
+    </row>
+    <row r="18" ht="39" customHeight="1" spans="1:12">
+      <c r="A18" s="16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="67"/>
+      <c r="K18" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="67"/>
+    </row>
+    <row r="19" ht="39" customHeight="1" spans="1:12">
+      <c r="A19" s="16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="67"/>
+      <c r="K19" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="67"/>
+    </row>
+    <row r="20" ht="39" customHeight="1" spans="1:12">
+      <c r="A20" s="16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="30"/>
+      <c r="K20" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="32"/>
+    </row>
+    <row r="22" ht="39" customHeight="1" spans="1:12">
+      <c r="A22" s="16">
+        <v>11</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" s="30"/>
+      <c r="K22" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="30"/>
+    </row>
+    <row r="23" ht="39" customHeight="1" spans="1:12">
+      <c r="A23" s="16">
+        <f t="shared" ref="A23:A30" si="1">SUM(A22+1)</f>
+        <v>12</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="30"/>
+      <c r="K23" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="30"/>
+    </row>
+    <row r="24" ht="39" customHeight="1" spans="1:12">
+      <c r="A24" s="16">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="47"/>
-      <c r="K14" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" s="30"/>
+      <c r="K24" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="47"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="40">
+      <c r="L24" s="30"/>
+    </row>
+    <row r="25" ht="39" customHeight="1" spans="1:12">
+      <c r="A25" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="47"/>
-      <c r="K15" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" s="30"/>
+      <c r="K25" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="47"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="40">
+      <c r="L25" s="30"/>
+    </row>
+    <row r="26" ht="39" customHeight="1" spans="1:12">
+      <c r="A26" s="16">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="J16" s="47"/>
-      <c r="K16" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" s="30"/>
+      <c r="K26" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="47"/>
-    </row>
-    <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="40">
+      <c r="L26" s="30"/>
+    </row>
+    <row r="27" ht="39" customHeight="1" spans="1:12">
+      <c r="A27" s="16">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" s="47"/>
-      <c r="K17" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" s="30"/>
+      <c r="K27" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L17" s="47"/>
-    </row>
-    <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="40">
+      <c r="L27" s="30"/>
+    </row>
+    <row r="28" ht="39" customHeight="1" spans="1:12">
+      <c r="A28" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" s="47"/>
-      <c r="K18" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" s="30"/>
+      <c r="K28" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="47"/>
-    </row>
-    <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="63">
+      <c r="L28" s="30"/>
+    </row>
+    <row r="29" ht="39" customHeight="1" spans="1:12">
+      <c r="A29" s="16">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="J29" s="30"/>
+      <c r="K29" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="67"/>
-    </row>
-    <row r="20" ht="72.75" customHeight="1">
-      <c r="A20" s="69">
+      <c r="L29" s="30"/>
+    </row>
+    <row r="30" ht="39" customHeight="1" spans="1:12">
+      <c r="A30" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" s="72"/>
-      <c r="K20" s="73" t="s">
+      <c r="H30" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30" s="30"/>
+      <c r="K30" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="74"/>
-    </row>
-    <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="81"/>
-    </row>
-    <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="82">
-        <v>11.0</v>
-      </c>
-      <c r="B22" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="85" t="s">
+      <c r="L30" s="30"/>
+    </row>
+    <row r="31" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="32"/>
+    </row>
+    <row r="32" ht="39" customHeight="1" spans="1:12">
+      <c r="A32" s="16">
+        <f>SUM(19+1)</f>
+        <v>20</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="86" t="s">
+      <c r="E32" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="J32" s="30"/>
+      <c r="K32" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="30"/>
+    </row>
+    <row r="33" ht="39" customHeight="1" spans="1:12">
+      <c r="A33" s="16">
+        <f>SUM(A32+1)</f>
+        <v>21</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="J33" s="30"/>
+      <c r="K33" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" s="30"/>
+    </row>
+    <row r="34" ht="39" customHeight="1" spans="1:12">
+      <c r="A34" s="16">
+        <f>SUM(A33+1)</f>
+        <v>22</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="87" t="s">
+      <c r="G34" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="88" t="s">
+      <c r="H34" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="I22" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="J22" s="90"/>
-      <c r="K22" s="91" t="s">
+      <c r="I34" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="J34" s="30"/>
+      <c r="K34" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="74"/>
-    </row>
-    <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="69">
-        <f t="shared" ref="A23:A30" si="2">sum(A22+1)</f>
-        <v>12</v>
-      </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="86" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="87" t="s">
+      <c r="L34" s="30"/>
+    </row>
+    <row r="35" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A35" s="23"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+    </row>
+    <row r="36" ht="40" customHeight="1" spans="1:12">
+      <c r="A36" s="29">
+        <f>SUM(22+1)</f>
+        <v>23</v>
+      </c>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="88" t="s">
+      <c r="H36" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="I23" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="J23" s="90"/>
-      <c r="K23" s="91" t="s">
+      <c r="I36" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="J36" s="30"/>
+      <c r="K36" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L23" s="74"/>
-    </row>
-    <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="69">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="87" t="s">
+      <c r="L36" s="30"/>
+    </row>
+    <row r="37" ht="40" customHeight="1" spans="1:12">
+      <c r="A37" s="29">
+        <f>SUM(A36+1)</f>
+        <v>24</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="88" t="s">
+      <c r="H37" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="89" t="s">
-        <v>85</v>
-      </c>
-      <c r="J24" s="90"/>
-      <c r="K24" s="91" t="s">
+      <c r="I37" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="J37" s="30"/>
+      <c r="K37" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="74"/>
-    </row>
-    <row r="25" ht="13.5" customHeight="1">
-      <c r="A25" s="69">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="86" t="s">
+      <c r="L37" s="30"/>
+    </row>
+    <row r="38" ht="40" customHeight="1" spans="1:12">
+      <c r="A38" s="30"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H25" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="I25" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="J25" s="90"/>
-      <c r="K25" s="91" t="s">
+      <c r="H38" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J38" s="30"/>
+      <c r="K38" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="74"/>
-    </row>
-    <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="69">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="I26" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="J26" s="90"/>
-      <c r="K26" s="91" t="s">
+      <c r="L38" s="30"/>
+    </row>
+    <row r="39" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="32"/>
+    </row>
+    <row r="40" ht="38" customHeight="1" spans="1:12">
+      <c r="A40" s="33">
+        <v>25</v>
+      </c>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="H40" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="I40" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="J40" s="47"/>
+      <c r="K40" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L26" s="74"/>
-    </row>
-    <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="69">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="J27" s="90"/>
-      <c r="K27" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27" s="74"/>
-    </row>
-    <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="69">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="G28" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="I28" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="J28" s="90"/>
-      <c r="K28" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="L28" s="74"/>
-    </row>
-    <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="69">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" s="86" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="93" t="s">
-        <v>101</v>
-      </c>
-      <c r="I29" s="86" t="s">
-        <v>102</v>
-      </c>
-      <c r="J29" s="90"/>
-      <c r="K29" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="L29" s="74"/>
-    </row>
-    <row r="30" ht="13.5" customHeight="1">
-      <c r="A30" s="69">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="H30" s="93" t="s">
-        <v>104</v>
-      </c>
-      <c r="I30" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="J30" s="90"/>
-      <c r="K30" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="L30" s="74"/>
-    </row>
-    <row r="31" ht="13.5" customHeight="1">
-      <c r="A31" s="75"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="101"/>
-    </row>
-    <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="69">
-        <f>sum(19+1)</f>
-        <v>20</v>
-      </c>
-      <c r="B32" s="102" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="G32" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="H32" s="93" t="s">
-        <v>78</v>
-      </c>
-      <c r="I32" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="J32" s="90"/>
-      <c r="K32" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="L32" s="74"/>
-    </row>
-    <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="69">
-        <f t="shared" ref="A33:A35" si="3">sum(A32+1)</f>
-        <v>21</v>
-      </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="86" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="86" t="s">
-        <v>110</v>
-      </c>
-      <c r="G33" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="I33" s="86" t="s">
-        <v>112</v>
-      </c>
-      <c r="J33" s="90"/>
-      <c r="K33" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="L33" s="74"/>
-    </row>
-    <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="69">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="G34" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="H34" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="I34" s="86" t="s">
-        <v>114</v>
-      </c>
-      <c r="J34" s="90"/>
-      <c r="K34" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="L34" s="74"/>
-    </row>
-    <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" s="69">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="F35" s="86" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="H35" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="I35" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="J35" s="90"/>
-      <c r="K35" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="L35" s="74"/>
-    </row>
-    <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" s="104"/>
-      <c r="B36" s="105"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="100"/>
-      <c r="L36" s="107"/>
-    </row>
-    <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="108">
-        <f>sum(23+1)</f>
-        <v>24</v>
-      </c>
-      <c r="B37" s="109"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="110" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="111" t="s">
-        <v>118</v>
-      </c>
-      <c r="F37" s="111" t="s">
-        <v>119</v>
-      </c>
-      <c r="G37" s="111" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="I37" s="111" t="s">
-        <v>120</v>
-      </c>
-      <c r="J37" s="112"/>
-      <c r="K37" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="L37" s="113"/>
-    </row>
-    <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="108">
-        <f>sum(A37+1)</f>
-        <v>25</v>
-      </c>
-      <c r="B38" s="114"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="111" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="111" t="s">
-        <v>122</v>
-      </c>
-      <c r="G38" s="111" t="s">
-        <v>71</v>
-      </c>
-      <c r="H38" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="I38" s="111" t="s">
-        <v>123</v>
-      </c>
-      <c r="J38" s="112"/>
-      <c r="K38" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="L38" s="113"/>
-    </row>
-    <row r="39" ht="13.5" customHeight="1">
-      <c r="A39" s="115"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="111" t="s">
-        <v>124</v>
-      </c>
-      <c r="F39" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="G39" s="111" t="s">
-        <v>71</v>
-      </c>
-      <c r="H39" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="I39" s="111" t="s">
-        <v>126</v>
-      </c>
-      <c r="J39" s="112"/>
-      <c r="K39" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="L39" s="113"/>
-    </row>
-    <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" s="117"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="117"/>
-      <c r="I40" s="117"/>
-      <c r="J40" s="118"/>
-      <c r="K40" s="100"/>
-      <c r="L40" s="119"/>
-    </row>
-    <row r="41" ht="13.5" customHeight="1"/>
-    <row r="42" ht="13.5" customHeight="1"/>
-    <row r="43" ht="13.5" customHeight="1"/>
-    <row r="44" ht="13.5" customHeight="1"/>
-    <row r="45" ht="13.5" customHeight="1"/>
-    <row r="46" ht="13.5" customHeight="1"/>
-    <row r="47" ht="13.5" customHeight="1"/>
-    <row r="48" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
+      <c r="L40" s="47"/>
+    </row>
+    <row r="41" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+    </row>
+    <row r="42" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+    </row>
+    <row r="43" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+    </row>
+    <row r="44" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+    </row>
+    <row r="45" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+    </row>
+    <row r="46" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+    </row>
+    <row r="47" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+    </row>
+    <row r="48" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+    </row>
+    <row r="49" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+    </row>
+    <row r="50" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+    </row>
+    <row r="51" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+    </row>
+    <row r="52" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+    </row>
+    <row r="53" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+    </row>
+    <row r="54" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+    </row>
+    <row r="55" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+    </row>
+    <row r="56" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+    </row>
+    <row r="57" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+    </row>
+    <row r="58" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+    </row>
+    <row r="59" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+    </row>
+    <row r="60" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
+    </row>
+    <row r="61" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
+    </row>
+    <row r="62" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+    </row>
+    <row r="63" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="47"/>
+    </row>
+    <row r="64" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="47"/>
+    </row>
+    <row r="65" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
+    </row>
+    <row r="66" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="47"/>
+    </row>
+    <row r="67" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
+    </row>
     <row r="68" ht="13.5" customHeight="1"/>
     <row r="69" ht="13.5" customHeight="1"/>
     <row r="70" ht="13.5" customHeight="1"/>
@@ -3565,7 +4353,6 @@
     <row r="970" ht="13.5" customHeight="1"/>
     <row r="971" ht="13.5" customHeight="1"/>
     <row r="972" ht="13.5" customHeight="1"/>
-    <row r="973" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="A1:B1"/>
@@ -3573,57 +4360,60 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B12:B20"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B36:B38"/>
     <mergeCell ref="C12:C20"/>
+    <mergeCell ref="C22:C30"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C36:C38"/>
     <mergeCell ref="D12:D20"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C22:C30"/>
     <mergeCell ref="D22:D30"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D36:D38"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="K8 K10 K12:K20 K22:K30 K32:K35 K37:K39">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="K8 K10 K34 K12:K20 K22:K30 K32:K33 K36:K37 K38:K40">
       <formula1>"Passed,Failed,Not Executed,Out of Scope"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C1"/>
-    <hyperlink r:id="rId2" ref="C3"/>
-    <hyperlink r:id="rId3" ref="E3"/>
-    <hyperlink r:id="rId4" ref="I8"/>
-    <hyperlink r:id="rId5" ref="I10"/>
-    <hyperlink r:id="rId6" ref="J10"/>
-    <hyperlink r:id="rId7" ref="I12"/>
-    <hyperlink r:id="rId8" ref="I17"/>
-    <hyperlink r:id="rId9" ref="I20"/>
-    <hyperlink r:id="rId10" ref="H25"/>
-    <hyperlink r:id="rId11" ref="H26"/>
-    <hyperlink r:id="rId12" ref="H29"/>
-    <hyperlink r:id="rId13" ref="H30"/>
-    <hyperlink r:id="rId14" ref="H32"/>
-    <hyperlink r:id="rId15" ref="H33"/>
+    <hyperlink ref="C1" r:id="rId1" display="Task Management System"/>
+    <hyperlink ref="C3" r:id="rId2" display="Faishel Rabbani"/>
+    <hyperlink ref="E3" r:id="rId3" display="Mohammad Sumon"/>
+    <hyperlink ref="I8" r:id="rId1" display="1. Goto different browsers &#10;2. Search &quot;http://niprojmi.com/&quot;&#10;3. Goto the Website"/>
+    <hyperlink ref="I10" r:id="rId1" display="1. Goto the URL&#10;http://niprojmi.com/"/>
+    <hyperlink ref="J10" r:id="rId4" display="Name"/>
+    <hyperlink ref="I12" r:id="rId1" display="1. Goto the URL&#10;http://niprojmi.com/&#10;2. Click on Login button &#10;3.Keep all fields blank"/>
+    <hyperlink ref="I17" r:id="rId1" display="1. Goto the URL&#10;http://niprojmi.com/&#10;2. Click on Login button &#10;3. Input Valid email and invalid password"/>
+    <hyperlink ref="I20" r:id="rId1" display="1. Goto the URL http://niprojmi.com/ &#10;2. Click on Login button &#10;3. Click Remember Me Checkbox"/>
+    <hyperlink ref="H25" r:id="rId5" display="All Reports"/>
+    <hyperlink ref="H26" r:id="rId5" display="Add SBU"/>
+    <hyperlink ref="H29" r:id="rId6" display="ADD Task"/>
+    <hyperlink ref="H30" r:id="rId7" display="All List"/>
+    <hyperlink ref="H32" r:id="rId8" display="Click"/>
+    <hyperlink ref="H33" r:id="rId9" display="ALL List"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId16"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="1"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Task Management System.xlsx
+++ b/Task Management System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25300" windowHeight="14540"/>
+    <workbookView windowWidth="16960" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="133">
   <si>
     <t>Product Name</t>
   </si>
@@ -123,6 +123,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>1. Goto different browsers 
 2. Search "</t>
     </r>
@@ -163,6 +168,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. Goto the URL
 </t>
     </r>
@@ -197,6 +207,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. Goto the URL
 </t>
     </r>
@@ -283,6 +298,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. Goto the URL
 </t>
     </r>
@@ -345,6 +365,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Email: jibon@gmail.com
 Password : 887711
 Remember me: </t>
@@ -361,6 +387,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. Goto the URL </t>
     </r>
     <r>
@@ -584,6 +616,18 @@
 3. After Login 
 4. Go to different differnt page</t>
   </si>
+  <si>
+    <t>Footer Link should be connected with website</t>
+  </si>
+  <si>
+    <t>Should be connect JMI GROUP page</t>
+  </si>
+  <si>
+    <t>1. Goto the URL http://niprojmi.com/ 
+2. Click on Login button 
+3. After Login 
+4. Check footer link</t>
+  </si>
 </sst>
 </file>
 
@@ -591,9 +635,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="38">
@@ -705,6 +749,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -713,11 +773,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -728,9 +810,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,6 +848,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -759,91 +885,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -968,7 +1012,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,67 +1036,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,19 +1162,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,7 +1174,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,67 +1192,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,17 +1371,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1357,15 +1404,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1377,26 +1415,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1424,151 +1442,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="47" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1669,9 +1713,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1685,34 +1726,43 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1766,9 +1816,6 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1776,13 +1823,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2045,10 +2089,10 @@
   <sheetPr/>
   <dimension ref="A1:L972"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="1"/>
@@ -2079,13 +2123,13 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="35">
+      <c r="E1" s="34">
         <v>45203</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="50"/>
+      <c r="L1" s="52"/>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -2098,15 +2142,15 @@
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="34">
         <v>45206</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="52">
+      <c r="L2" s="54">
         <f>COUNTIF(K8:K142,"Passed")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:12">
@@ -2120,42 +2164,42 @@
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="52">
+      <c r="L3" s="54">
         <f>COUNTIF(K8:K142,"Failed")</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="11:12">
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="52">
+      <c r="L4" s="54">
         <f>COUNTIF(K8:K142,"Not Executed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="11:12">
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="56">
+      <c r="L5" s="58">
         <f>COUNTIF(K8:K142,"Out of Scope")</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="34" customHeight="1" spans="11:12">
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="58">
+      <c r="L6" s="60">
         <f>SUM(L2:L5)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:12">
@@ -2171,28 +2215,28 @@
       <c r="D7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="37" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="59" t="s">
+      <c r="L7" s="61" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2205,7 +2249,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="38" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="39" t="s">
@@ -2217,14 +2261,14 @@
       <c r="H8" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="61"/>
-      <c r="K8" s="62" t="s">
+      <c r="J8" s="63"/>
+      <c r="K8" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="63"/>
+      <c r="L8" s="65"/>
     </row>
     <row r="9" ht="13.5" customHeight="1" spans="1:12">
       <c r="A9" s="14"/>
@@ -2232,10 +2276,10 @@
       <c r="C9" s="15"/>
       <c r="D9" s="14"/>
       <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="15"/>
       <c r="K9" s="14"/>
       <c r="L9" s="15"/>
@@ -2245,7 +2289,7 @@
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="42" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="30" t="s">
@@ -2257,30 +2301,30 @@
       <c r="H10" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="65" t="s">
+      <c r="J10" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="66" t="s">
+      <c r="K10" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="67"/>
+      <c r="L10" s="50"/>
     </row>
     <row r="11" ht="13.5" customHeight="1" spans="1:12">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
     </row>
     <row r="12" ht="39" customHeight="1" spans="1:12">
       <c r="A12" s="16">
@@ -2292,7 +2336,7 @@
       <c r="D12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="42" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="30" t="s">
@@ -2304,14 +2348,14 @@
       <c r="H12" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="64" t="s">
+      <c r="I12" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="62" t="s">
+      <c r="J12" s="50"/>
+      <c r="K12" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="L12" s="67"/>
+      <c r="L12" s="50"/>
     </row>
     <row r="13" ht="39" customHeight="1" spans="1:12">
       <c r="A13" s="16">
@@ -2321,7 +2365,7 @@
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="42" t="s">
         <v>47</v>
       </c>
       <c r="F13" s="39" t="s">
@@ -2336,11 +2380,11 @@
       <c r="I13" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="67"/>
-      <c r="K13" s="62" t="s">
+      <c r="J13" s="50"/>
+      <c r="K13" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="67"/>
+      <c r="L13" s="50"/>
     </row>
     <row r="14" ht="39" customHeight="1" spans="1:12">
       <c r="A14" s="16">
@@ -2350,7 +2394,7 @@
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="38" t="s">
         <v>51</v>
       </c>
       <c r="F14" s="30" t="s">
@@ -2365,11 +2409,11 @@
       <c r="I14" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="67"/>
-      <c r="K14" s="62" t="s">
+      <c r="J14" s="50"/>
+      <c r="K14" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="67"/>
+      <c r="L14" s="50"/>
     </row>
     <row r="15" ht="39" customHeight="1" spans="1:12">
       <c r="A15" s="16">
@@ -2379,7 +2423,7 @@
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="42" t="s">
         <v>54</v>
       </c>
       <c r="F15" s="39" t="s">
@@ -2394,11 +2438,11 @@
       <c r="I15" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="67"/>
-      <c r="K15" s="62" t="s">
+      <c r="J15" s="50"/>
+      <c r="K15" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="67"/>
+      <c r="L15" s="50"/>
     </row>
     <row r="16" ht="39" customHeight="1" spans="1:12">
       <c r="A16" s="16">
@@ -2408,7 +2452,7 @@
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="42" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="30" t="s">
@@ -2423,11 +2467,11 @@
       <c r="I16" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="67"/>
-      <c r="K16" s="62" t="s">
+      <c r="J16" s="50"/>
+      <c r="K16" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="67"/>
+      <c r="L16" s="50"/>
     </row>
     <row r="17" ht="39" customHeight="1" spans="1:12">
       <c r="A17" s="16">
@@ -2437,7 +2481,7 @@
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="42" t="s">
         <v>60</v>
       </c>
       <c r="F17" s="30" t="s">
@@ -2449,14 +2493,14 @@
       <c r="H17" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="60" t="s">
+      <c r="I17" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="67"/>
-      <c r="K17" s="62" t="s">
+      <c r="J17" s="50"/>
+      <c r="K17" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="L17" s="67"/>
+      <c r="L17" s="50"/>
     </row>
     <row r="18" ht="39" customHeight="1" spans="1:12">
       <c r="A18" s="16">
@@ -2466,7 +2510,7 @@
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="42" t="s">
         <v>63</v>
       </c>
       <c r="F18" s="30" t="s">
@@ -2481,11 +2525,11 @@
       <c r="I18" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="67"/>
-      <c r="K18" s="62" t="s">
+      <c r="J18" s="50"/>
+      <c r="K18" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="67"/>
+      <c r="L18" s="50"/>
     </row>
     <row r="19" ht="39" customHeight="1" spans="1:12">
       <c r="A19" s="16">
@@ -2495,7 +2539,7 @@
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="42" t="s">
         <v>67</v>
       </c>
       <c r="F19" s="30" t="s">
@@ -2507,14 +2551,14 @@
       <c r="H19" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="69" t="s">
+      <c r="I19" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="62" t="s">
+      <c r="J19" s="50"/>
+      <c r="K19" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="67"/>
+      <c r="L19" s="50"/>
     </row>
     <row r="20" ht="39" customHeight="1" spans="1:12">
       <c r="A20" s="16">
@@ -2524,7 +2568,7 @@
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="42" t="s">
         <v>70</v>
       </c>
       <c r="F20" s="30" t="s">
@@ -2536,11 +2580,11 @@
       <c r="H20" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="70" t="s">
+      <c r="I20" s="71" t="s">
         <v>73</v>
       </c>
       <c r="J20" s="30"/>
-      <c r="K20" s="62" t="s">
+      <c r="K20" s="64" t="s">
         <v>34</v>
       </c>
       <c r="L20" s="30"/>
@@ -2550,7 +2594,7 @@
       <c r="B21" s="24"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
-      <c r="E21" s="32"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
@@ -2570,7 +2614,7 @@
       <c r="D22" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="42" t="s">
         <v>76</v>
       </c>
       <c r="F22" s="30" t="s">
@@ -2579,14 +2623,14 @@
       <c r="G22" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="42" t="s">
+      <c r="H22" s="46" t="s">
         <v>78</v>
       </c>
       <c r="I22" s="30" t="s">
         <v>79</v>
       </c>
       <c r="J22" s="30"/>
-      <c r="K22" s="62" t="s">
+      <c r="K22" s="64" t="s">
         <v>34</v>
       </c>
       <c r="L22" s="30"/>
@@ -2599,7 +2643,7 @@
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="42" t="s">
         <v>80</v>
       </c>
       <c r="F23" s="30" t="s">
@@ -2608,14 +2652,14 @@
       <c r="G23" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="42" t="s">
+      <c r="H23" s="46" t="s">
         <v>78</v>
       </c>
       <c r="I23" s="30" t="s">
         <v>82</v>
       </c>
       <c r="J23" s="30"/>
-      <c r="K23" s="62" t="s">
+      <c r="K23" s="64" t="s">
         <v>34</v>
       </c>
       <c r="L23" s="30"/>
@@ -2628,7 +2672,7 @@
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="42" t="s">
         <v>83</v>
       </c>
       <c r="F24" s="30" t="s">
@@ -2637,14 +2681,14 @@
       <c r="G24" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="42" t="s">
+      <c r="H24" s="46" t="s">
         <v>78</v>
       </c>
       <c r="I24" s="30" t="s">
         <v>85</v>
       </c>
       <c r="J24" s="30"/>
-      <c r="K24" s="62" t="s">
+      <c r="K24" s="64" t="s">
         <v>34</v>
       </c>
       <c r="L24" s="30"/>
@@ -2657,7 +2701,7 @@
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="42" t="s">
         <v>86</v>
       </c>
       <c r="F25" s="30" t="s">
@@ -2666,14 +2710,14 @@
       <c r="G25" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H25" s="43" t="s">
+      <c r="H25" s="47" t="s">
         <v>88</v>
       </c>
       <c r="I25" s="30" t="s">
         <v>89</v>
       </c>
       <c r="J25" s="30"/>
-      <c r="K25" s="62" t="s">
+      <c r="K25" s="64" t="s">
         <v>34</v>
       </c>
       <c r="L25" s="30"/>
@@ -2686,7 +2730,7 @@
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="42" t="s">
         <v>90</v>
       </c>
       <c r="F26" s="30" t="s">
@@ -2695,14 +2739,14 @@
       <c r="G26" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="43" t="s">
+      <c r="H26" s="47" t="s">
         <v>91</v>
       </c>
       <c r="I26" s="30" t="s">
         <v>92</v>
       </c>
       <c r="J26" s="30"/>
-      <c r="K26" s="62" t="s">
+      <c r="K26" s="64" t="s">
         <v>34</v>
       </c>
       <c r="L26" s="30"/>
@@ -2715,7 +2759,7 @@
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="42" t="s">
         <v>93</v>
       </c>
       <c r="F27" s="30" t="s">
@@ -2724,14 +2768,14 @@
       <c r="G27" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="44" t="s">
+      <c r="H27" s="46" t="s">
         <v>78</v>
       </c>
       <c r="I27" s="30" t="s">
         <v>95</v>
       </c>
       <c r="J27" s="30"/>
-      <c r="K27" s="62" t="s">
+      <c r="K27" s="64" t="s">
         <v>34</v>
       </c>
       <c r="L27" s="30"/>
@@ -2744,7 +2788,7 @@
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="42" t="s">
         <v>96</v>
       </c>
       <c r="F28" s="30" t="s">
@@ -2753,14 +2797,14 @@
       <c r="G28" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="44" t="s">
+      <c r="H28" s="46" t="s">
         <v>78</v>
       </c>
       <c r="I28" s="30" t="s">
         <v>98</v>
       </c>
       <c r="J28" s="30"/>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="64" t="s">
         <v>34</v>
       </c>
       <c r="L28" s="30"/>
@@ -2773,7 +2817,7 @@
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="42" t="s">
         <v>99</v>
       </c>
       <c r="F29" s="30" t="s">
@@ -2782,14 +2826,14 @@
       <c r="G29" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H29" s="43" t="s">
+      <c r="H29" s="47" t="s">
         <v>101</v>
       </c>
       <c r="I29" s="30" t="s">
         <v>102</v>
       </c>
       <c r="J29" s="30"/>
-      <c r="K29" s="62" t="s">
+      <c r="K29" s="64" t="s">
         <v>34</v>
       </c>
       <c r="L29" s="30"/>
@@ -2802,21 +2846,21 @@
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="42" t="s">
         <v>103</v>
       </c>
       <c r="F30" s="30"/>
       <c r="G30" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H30" s="43" t="s">
+      <c r="H30" s="47" t="s">
         <v>104</v>
       </c>
       <c r="I30" s="30" t="s">
         <v>105</v>
       </c>
       <c r="J30" s="30"/>
-      <c r="K30" s="62" t="s">
+      <c r="K30" s="64" t="s">
         <v>34</v>
       </c>
       <c r="L30" s="30"/>
@@ -2826,10 +2870,10 @@
       <c r="B31" s="24"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
-      <c r="E31" s="32"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
-      <c r="H31" s="45"/>
+      <c r="H31" s="32"/>
       <c r="I31" s="32"/>
       <c r="J31" s="32"/>
       <c r="K31" s="28"/>
@@ -2847,7 +2891,7 @@
       <c r="D32" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="42" t="s">
         <v>80</v>
       </c>
       <c r="F32" s="30" t="s">
@@ -2856,14 +2900,14 @@
       <c r="G32" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H32" s="43" t="s">
+      <c r="H32" s="47" t="s">
         <v>78</v>
       </c>
       <c r="I32" s="30" t="s">
         <v>108</v>
       </c>
       <c r="J32" s="30"/>
-      <c r="K32" s="62" t="s">
+      <c r="K32" s="64" t="s">
         <v>34</v>
       </c>
       <c r="L32" s="30"/>
@@ -2876,7 +2920,7 @@
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="42" t="s">
         <v>109</v>
       </c>
       <c r="F33" s="30" t="s">
@@ -2885,14 +2929,14 @@
       <c r="G33" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H33" s="43" t="s">
+      <c r="H33" s="47" t="s">
         <v>111</v>
       </c>
       <c r="I33" s="30" t="s">
         <v>112</v>
       </c>
       <c r="J33" s="30"/>
-      <c r="K33" s="62" t="s">
+      <c r="K33" s="64" t="s">
         <v>34</v>
       </c>
       <c r="L33" s="30"/>
@@ -2905,7 +2949,7 @@
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="42" t="s">
         <v>113</v>
       </c>
       <c r="F34" s="30" t="s">
@@ -2914,14 +2958,14 @@
       <c r="G34" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H34" s="31" t="s">
+      <c r="H34" s="30" t="s">
         <v>78</v>
       </c>
       <c r="I34" s="30" t="s">
         <v>114</v>
       </c>
       <c r="J34" s="30"/>
-      <c r="K34" s="62" t="s">
+      <c r="K34" s="64" t="s">
         <v>34</v>
       </c>
       <c r="L34" s="30"/>
@@ -2931,7 +2975,7 @@
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
+      <c r="E35" s="48"/>
       <c r="F35" s="28"/>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
@@ -2950,7 +2994,7 @@
       <c r="D36" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="42" t="s">
         <v>116</v>
       </c>
       <c r="F36" s="30" t="s">
@@ -2959,14 +3003,14 @@
       <c r="G36" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H36" s="44" t="s">
+      <c r="H36" s="46" t="s">
         <v>78</v>
       </c>
       <c r="I36" s="30" t="s">
         <v>118</v>
       </c>
       <c r="J36" s="30"/>
-      <c r="K36" s="62" t="s">
+      <c r="K36" s="64" t="s">
         <v>34</v>
       </c>
       <c r="L36" s="30"/>
@@ -2979,7 +3023,7 @@
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="42" t="s">
         <v>119</v>
       </c>
       <c r="F37" s="30" t="s">
@@ -2988,14 +3032,14 @@
       <c r="G37" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H37" s="44" t="s">
+      <c r="H37" s="46" t="s">
         <v>78</v>
       </c>
       <c r="I37" s="30" t="s">
         <v>121</v>
       </c>
       <c r="J37" s="30"/>
-      <c r="K37" s="62" t="s">
+      <c r="K37" s="64" t="s">
         <v>34</v>
       </c>
       <c r="L37" s="30"/>
@@ -3005,7 +3049,7 @@
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="42" t="s">
         <v>122</v>
       </c>
       <c r="F38" s="30" t="s">
@@ -3014,14 +3058,14 @@
       <c r="G38" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H38" s="44" t="s">
+      <c r="H38" s="46" t="s">
         <v>78</v>
       </c>
       <c r="I38" s="30" t="s">
         <v>124</v>
       </c>
       <c r="J38" s="30"/>
-      <c r="K38" s="62" t="s">
+      <c r="K38" s="64" t="s">
         <v>34</v>
       </c>
       <c r="L38" s="30"/>
@@ -3031,13 +3075,13 @@
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="E39" s="45"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
-      <c r="K39" s="71"/>
+      <c r="K39" s="72"/>
       <c r="L39" s="32"/>
     </row>
     <row r="40" ht="38" customHeight="1" spans="1:12">
@@ -3046,407 +3090,422 @@
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="E40" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="F40" s="46" t="s">
+      <c r="F40" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="G40" s="47" t="s">
+      <c r="G40" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="H40" s="48" t="s">
+      <c r="H40" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="I40" s="72" t="s">
+      <c r="I40" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="J40" s="47"/>
-      <c r="K40" s="62" t="s">
+      <c r="J40" s="50"/>
+      <c r="K40" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="L40" s="47"/>
-    </row>
-    <row r="41" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A41" s="33"/>
+      <c r="L40" s="50"/>
+    </row>
+    <row r="41" ht="42" customHeight="1" spans="1:12">
+      <c r="A41" s="33">
+        <f>SUM(A40+1)</f>
+        <v>26</v>
+      </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-    </row>
-    <row r="42" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D41" s="27"/>
+      <c r="E41" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="I41" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="J41" s="50"/>
+      <c r="K41" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="L41" s="50"/>
+    </row>
+    <row r="42" ht="42" customHeight="1" spans="1:12">
       <c r="A42" s="33"/>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-    </row>
-    <row r="43" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D42" s="27"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+    </row>
+    <row r="43" ht="42" customHeight="1" spans="1:12">
       <c r="A43" s="33"/>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-    </row>
-    <row r="44" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D43" s="27"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+    </row>
+    <row r="44" ht="42" customHeight="1" spans="1:12">
       <c r="A44" s="33"/>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-    </row>
-    <row r="45" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D44" s="27"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+    </row>
+    <row r="45" ht="42" customHeight="1" spans="1:12">
       <c r="A45" s="33"/>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-    </row>
-    <row r="46" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D45" s="27"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+    </row>
+    <row r="46" ht="42" customHeight="1" spans="1:12">
       <c r="A46" s="33"/>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-    </row>
-    <row r="47" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D46" s="27"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+    </row>
+    <row r="47" ht="42" customHeight="1" spans="1:12">
       <c r="A47" s="33"/>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-    </row>
-    <row r="48" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D47" s="27"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
+    </row>
+    <row r="48" ht="42" customHeight="1" spans="1:12">
       <c r="A48" s="33"/>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-    </row>
-    <row r="49" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D48" s="27"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+    </row>
+    <row r="49" ht="42" customHeight="1" spans="1:12">
       <c r="A49" s="33"/>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-    </row>
-    <row r="50" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D49" s="27"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+    </row>
+    <row r="50" ht="42" customHeight="1" spans="1:12">
       <c r="A50" s="33"/>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-    </row>
-    <row r="51" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D50" s="27"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="50"/>
+    </row>
+    <row r="51" ht="42" customHeight="1" spans="1:12">
       <c r="A51" s="33"/>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-    </row>
-    <row r="52" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D51" s="27"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
+    </row>
+    <row r="52" ht="42" customHeight="1" spans="1:12">
       <c r="A52" s="33"/>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="47"/>
-    </row>
-    <row r="53" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D52" s="27"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
+    </row>
+    <row r="53" ht="42" customHeight="1" spans="1:12">
       <c r="A53" s="33"/>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-    </row>
-    <row r="54" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D53" s="27"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
+    </row>
+    <row r="54" ht="42" customHeight="1" spans="1:12">
       <c r="A54" s="33"/>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="47"/>
-    </row>
-    <row r="55" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D54" s="27"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="50"/>
+    </row>
+    <row r="55" ht="42" customHeight="1" spans="1:12">
       <c r="A55" s="33"/>
       <c r="B55" s="33"/>
       <c r="C55" s="33"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="47"/>
-      <c r="L55" s="47"/>
-    </row>
-    <row r="56" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D55" s="27"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+    </row>
+    <row r="56" ht="42" customHeight="1" spans="1:12">
       <c r="A56" s="33"/>
       <c r="B56" s="33"/>
       <c r="C56" s="33"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="47"/>
-      <c r="L56" s="47"/>
-    </row>
-    <row r="57" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D56" s="27"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="50"/>
+    </row>
+    <row r="57" ht="42" customHeight="1" spans="1:12">
       <c r="A57" s="33"/>
       <c r="B57" s="33"/>
       <c r="C57" s="33"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="47"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="47"/>
-    </row>
-    <row r="58" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D57" s="27"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
+    </row>
+    <row r="58" ht="42" customHeight="1" spans="1:12">
       <c r="A58" s="33"/>
       <c r="B58" s="33"/>
       <c r="C58" s="33"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="47"/>
-      <c r="L58" s="47"/>
-    </row>
-    <row r="59" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D58" s="27"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="50"/>
+    </row>
+    <row r="59" ht="42" customHeight="1" spans="1:12">
       <c r="A59" s="33"/>
       <c r="B59" s="33"/>
       <c r="C59" s="33"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="47"/>
-      <c r="L59" s="47"/>
-    </row>
-    <row r="60" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D59" s="27"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="50"/>
+    </row>
+    <row r="60" ht="42" customHeight="1" spans="1:12">
       <c r="A60" s="33"/>
       <c r="B60" s="33"/>
       <c r="C60" s="33"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
-    </row>
-    <row r="61" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D60" s="27"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="50"/>
+    </row>
+    <row r="61" ht="42" customHeight="1" spans="1:12">
       <c r="A61" s="33"/>
       <c r="B61" s="33"/>
       <c r="C61" s="33"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="47"/>
-    </row>
-    <row r="62" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D61" s="27"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="50"/>
+    </row>
+    <row r="62" ht="42" customHeight="1" spans="1:12">
       <c r="A62" s="33"/>
       <c r="B62" s="33"/>
       <c r="C62" s="33"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
-    </row>
-    <row r="63" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D62" s="27"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="50"/>
+    </row>
+    <row r="63" ht="42" customHeight="1" spans="1:12">
       <c r="A63" s="33"/>
       <c r="B63" s="33"/>
       <c r="C63" s="33"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="47"/>
-    </row>
-    <row r="64" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D63" s="27"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="50"/>
+    </row>
+    <row r="64" ht="42" customHeight="1" spans="1:12">
       <c r="A64" s="33"/>
       <c r="B64" s="33"/>
       <c r="C64" s="33"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
-      <c r="L64" s="47"/>
-    </row>
-    <row r="65" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D64" s="27"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="50"/>
+    </row>
+    <row r="65" ht="42" customHeight="1" spans="1:12">
       <c r="A65" s="33"/>
       <c r="B65" s="33"/>
       <c r="C65" s="33"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
-    </row>
-    <row r="66" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D65" s="27"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="50"/>
+    </row>
+    <row r="66" ht="42" customHeight="1" spans="1:12">
       <c r="A66" s="33"/>
       <c r="B66" s="33"/>
       <c r="C66" s="33"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="47"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="47"/>
-      <c r="L66" s="47"/>
-    </row>
-    <row r="67" ht="13.5" customHeight="1" spans="1:12">
+      <c r="D66" s="27"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="50"/>
+    </row>
+    <row r="67" ht="42" customHeight="1" spans="1:12">
       <c r="A67" s="33"/>
       <c r="B67" s="33"/>
       <c r="C67" s="33"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="50"/>
     </row>
     <row r="68" ht="13.5" customHeight="1"/>
     <row r="69" ht="13.5" customHeight="1"/>
@@ -4373,7 +4432,7 @@
     <mergeCell ref="D36:D38"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="K8 K10 K34 K12:K20 K22:K30 K32:K33 K36:K37 K38:K40">
+    <dataValidation type="list" allowBlank="1" sqref="K8 K10 K34 K40 K41 K12:K20 K22:K30 K32:K33 K36:K37 K38:K39">
       <formula1>"Passed,Failed,Not Executed,Out of Scope"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Task Management System.xlsx
+++ b/Task Management System.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="139">
   <si>
     <t>Product Name</t>
   </si>
@@ -123,11 +123,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
       <t>1. Goto different browsers 
 2. Search "</t>
     </r>
@@ -136,7 +131,7 @@
         <u/>
         <sz val="12"/>
         <color rgb="FF1155CC"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t>http://niprojmi.com/</t>
@@ -144,7 +139,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t>"
@@ -168,11 +163,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">1. Goto the URL
 </t>
     </r>
@@ -181,7 +171,7 @@
         <u/>
         <sz val="12"/>
         <color rgb="FF1155CC"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t>http://niprojmi.com/</t>
@@ -207,11 +197,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">1. Goto the URL
 </t>
     </r>
@@ -220,7 +205,7 @@
         <u/>
         <sz val="12"/>
         <color rgb="FF1155CC"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t>http://niprojmi.com/</t>
@@ -228,7 +213,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -298,11 +283,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">1. Goto the URL
 </t>
     </r>
@@ -311,7 +291,7 @@
         <u/>
         <sz val="12"/>
         <color rgb="FF1155CC"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t>http://niprojmi.com/</t>
@@ -319,7 +299,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -365,12 +345,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">Email: jibon@gmail.com
 Password : 887711
 Remember me: </t>
@@ -387,12 +361,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">1. Goto the URL </t>
     </r>
     <r>
@@ -400,7 +368,7 @@
         <u/>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t>http://niprojmi.com/</t>
@@ -409,7 +377,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 
@@ -627,6 +595,30 @@
 2. Click on Login button 
 3. After Login 
 4. Check footer link</t>
+  </si>
+  <si>
+    <t>Keeping Name of the title blank</t>
+  </si>
+  <si>
+    <t>Should not allow Submit</t>
+  </si>
+  <si>
+    <t>1. Dashboard
+2. Add New SBU
+3. Keeping Name of title blank 
+4. Click on Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input Name of the title </t>
+  </si>
+  <si>
+    <t>Should be allow Submit</t>
+  </si>
+  <si>
+    <t>1. Dashboard
+2. Add New SBU
+3. Input Name of title blank 
+4. Click on Submit</t>
   </si>
 </sst>
 </file>
@@ -649,62 +641,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman Bold"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <u/>
       <sz val="14"/>
       <color rgb="FF0563C1"/>
-      <name val="Times New Roman"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="14"/>
       <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="&quot;Times New Roman&quot;"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman Regular"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman Regular"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Times New Roman Regular"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
     <font>
@@ -712,40 +709,34 @@
       <u/>
       <sz val="14"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman Regular"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
-      <name val="Times New Roman Regular"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Verdana"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
     <font>
@@ -896,7 +887,7 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF1155CC"/>
-      <name val="Times New Roman Regular"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
     <font>
@@ -909,11 +900,11 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman Regular"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -964,6 +955,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6D9F0"/>
         <bgColor rgb="FFC6D9F0"/>
       </patternFill>
@@ -1197,7 +1194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1291,6 +1288,32 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1471,120 +1494,120 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1597,16 +1620,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="47" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="48" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1616,216 +1639,237 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2089,1423 +2133,1450 @@
   <sheetPr/>
   <dimension ref="A1:L972"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.859375" customWidth="1"/>
-    <col min="2" max="2" width="16.859375" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="27.859375" customWidth="1"/>
-    <col min="5" max="5" width="31.1171875" customWidth="1"/>
-    <col min="6" max="6" width="25.4296875" customWidth="1"/>
-    <col min="7" max="7" width="30.859375" customWidth="1"/>
-    <col min="8" max="8" width="31.2890625" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="26" width="9" customWidth="1"/>
+    <col min="1" max="1" width="6.859375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.859375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.859375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1171875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.4296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.859375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.2890625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="26" width="9" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="14.4296875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="34">
+      <c r="E1" s="39">
         <v>45203</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="52"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="39">
         <v>45206</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="54">
+      <c r="L2" s="61">
         <f>COUNTIF(K8:K142,"Passed")</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:12">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="61">
         <f>COUNTIF(K8:K142,"Failed")</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="11:12">
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="54">
+      <c r="L4" s="61">
         <f>COUNTIF(K8:K142,"Not Executed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="11:12">
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="58">
+      <c r="L5" s="65">
         <f>COUNTIF(K8:K142,"Out of Scope")</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="34" customHeight="1" spans="11:12">
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="60">
+      <c r="L6" s="67">
         <f>SUM(L2:L5)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="1:12">
+      <c r="A7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" ht="40" customHeight="1" spans="1:12">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" ht="20" customHeight="1" spans="1:12">
-      <c r="A7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="61" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" ht="40" customHeight="1" spans="1:12">
-      <c r="A8" s="11">
-        <v>1</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="38" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="63"/>
-      <c r="K8" s="64" t="s">
+      <c r="J8" s="70"/>
+      <c r="K8" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="65"/>
+      <c r="L8" s="72"/>
     </row>
     <row r="9" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="10" ht="39" customHeight="1" spans="1:12">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="42" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="66" t="s">
+      <c r="I10" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="67" t="s">
+      <c r="J10" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="50"/>
+      <c r="L10" s="55"/>
     </row>
     <row r="11" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
     </row>
     <row r="12" ht="39" customHeight="1" spans="1:12">
-      <c r="A12" s="16">
+      <c r="A12" s="17">
         <f>SUM(1+1)</f>
         <v>2</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="66" t="s">
+      <c r="I12" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="64" t="s">
+      <c r="J12" s="55"/>
+      <c r="K12" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L12" s="50"/>
+      <c r="L12" s="55"/>
     </row>
     <row r="13" ht="39" customHeight="1" spans="1:12">
-      <c r="A13" s="16">
+      <c r="A13" s="17">
         <f t="shared" ref="A13:A20" si="0">SUM(A12+1)</f>
         <v>3</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="42" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="64" t="s">
+      <c r="J13" s="55"/>
+      <c r="K13" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="50"/>
+      <c r="L13" s="55"/>
     </row>
     <row r="14" ht="39" customHeight="1" spans="1:12">
-      <c r="A14" s="16">
+      <c r="A14" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="38" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="50"/>
-      <c r="K14" s="64" t="s">
+      <c r="J14" s="55"/>
+      <c r="K14" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="50"/>
+      <c r="L14" s="55"/>
     </row>
     <row r="15" ht="39" customHeight="1" spans="1:12">
-      <c r="A15" s="16">
+      <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="42" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="50"/>
-      <c r="K15" s="64" t="s">
+      <c r="J15" s="55"/>
+      <c r="K15" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="50"/>
+      <c r="L15" s="55"/>
     </row>
     <row r="16" ht="39" customHeight="1" spans="1:12">
-      <c r="A16" s="16">
+      <c r="A16" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="42" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="50"/>
-      <c r="K16" s="64" t="s">
+      <c r="J16" s="55"/>
+      <c r="K16" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="50"/>
+      <c r="L16" s="55"/>
     </row>
     <row r="17" ht="39" customHeight="1" spans="1:12">
-      <c r="A17" s="16">
+      <c r="A17" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="42" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="62" t="s">
+      <c r="I17" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="50"/>
-      <c r="K17" s="64" t="s">
+      <c r="J17" s="55"/>
+      <c r="K17" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L17" s="50"/>
+      <c r="L17" s="55"/>
     </row>
     <row r="18" ht="39" customHeight="1" spans="1:12">
-      <c r="A18" s="16">
+      <c r="A18" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="42" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="50"/>
-      <c r="K18" s="64" t="s">
+      <c r="J18" s="55"/>
+      <c r="K18" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="50"/>
+      <c r="L18" s="55"/>
     </row>
     <row r="19" ht="39" customHeight="1" spans="1:12">
-      <c r="A19" s="16">
+      <c r="A19" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="42" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="70" t="s">
+      <c r="I19" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="64" t="s">
+      <c r="J19" s="55"/>
+      <c r="K19" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="50"/>
+      <c r="L19" s="55"/>
     </row>
     <row r="20" ht="39" customHeight="1" spans="1:12">
-      <c r="A20" s="16">
+      <c r="A20" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="42" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="71" t="s">
+      <c r="I20" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="64" t="s">
+      <c r="J20" s="31"/>
+      <c r="K20" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="30"/>
+      <c r="L20" s="31"/>
     </row>
     <row r="21" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="32"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="33"/>
     </row>
     <row r="22" ht="39" customHeight="1" spans="1:12">
-      <c r="A22" s="16">
+      <c r="A22" s="17">
         <v>11</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="27" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="46" t="s">
+      <c r="H22" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="I22" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="64" t="s">
+      <c r="J22" s="31"/>
+      <c r="K22" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="30"/>
+      <c r="L22" s="31"/>
     </row>
     <row r="23" ht="39" customHeight="1" spans="1:12">
-      <c r="A23" s="16">
+      <c r="A23" s="17">
         <f t="shared" ref="A23:A30" si="1">SUM(A22+1)</f>
         <v>12</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="42" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="G23" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="46" t="s">
+      <c r="H23" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="64" t="s">
+      <c r="J23" s="31"/>
+      <c r="K23" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L23" s="30"/>
+      <c r="L23" s="31"/>
     </row>
     <row r="24" ht="39" customHeight="1" spans="1:12">
-      <c r="A24" s="16">
+      <c r="A24" s="17">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="42" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="46" t="s">
+      <c r="H24" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="64" t="s">
+      <c r="J24" s="31"/>
+      <c r="K24" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="30"/>
+      <c r="L24" s="31"/>
     </row>
     <row r="25" ht="39" customHeight="1" spans="1:12">
-      <c r="A25" s="16">
+      <c r="A25" s="17">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="42" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="30" t="s">
+      <c r="G25" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H25" s="47" t="s">
+      <c r="H25" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="64" t="s">
+      <c r="J25" s="31"/>
+      <c r="K25" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="30"/>
+      <c r="L25" s="31"/>
     </row>
     <row r="26" ht="39" customHeight="1" spans="1:12">
-      <c r="A26" s="16">
+      <c r="A26" s="17">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="42" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="47" t="s">
+      <c r="H26" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="30" t="s">
+      <c r="I26" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="64" t="s">
+      <c r="J26" s="31"/>
+      <c r="K26" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L26" s="30"/>
+      <c r="L26" s="31"/>
     </row>
     <row r="27" ht="39" customHeight="1" spans="1:12">
-      <c r="A27" s="16">
+      <c r="A27" s="17">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="42" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="46" t="s">
+      <c r="H27" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="J27" s="30"/>
-      <c r="K27" s="64" t="s">
+      <c r="J27" s="31"/>
+      <c r="K27" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L27" s="30"/>
+      <c r="L27" s="31"/>
     </row>
     <row r="28" ht="39" customHeight="1" spans="1:12">
-      <c r="A28" s="16">
+      <c r="A28" s="17">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="42" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="46" t="s">
+      <c r="H28" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="I28" s="30" t="s">
+      <c r="I28" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="J28" s="30"/>
-      <c r="K28" s="64" t="s">
+      <c r="J28" s="31"/>
+      <c r="K28" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L28" s="30"/>
+      <c r="L28" s="31"/>
     </row>
     <row r="29" ht="39" customHeight="1" spans="1:12">
-      <c r="A29" s="16">
+      <c r="A29" s="17">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="42" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G29" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H29" s="47" t="s">
+      <c r="H29" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="J29" s="30"/>
-      <c r="K29" s="64" t="s">
+      <c r="J29" s="31"/>
+      <c r="K29" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L29" s="30"/>
+      <c r="L29" s="31"/>
     </row>
     <row r="30" ht="39" customHeight="1" spans="1:12">
-      <c r="A30" s="16">
+      <c r="A30" s="17">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="42" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30" t="s">
+      <c r="F30" s="31"/>
+      <c r="G30" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H30" s="47" t="s">
+      <c r="H30" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="I30" s="30" t="s">
+      <c r="I30" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="J30" s="30"/>
-      <c r="K30" s="64" t="s">
+      <c r="J30" s="31"/>
+      <c r="K30" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L30" s="30"/>
+      <c r="L30" s="31"/>
     </row>
     <row r="31" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="32"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="33"/>
     </row>
     <row r="32" ht="39" customHeight="1" spans="1:12">
-      <c r="A32" s="16">
+      <c r="A32" s="17">
         <f>SUM(19+1)</f>
         <v>20</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18" t="s">
+      <c r="C32" s="19"/>
+      <c r="D32" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="G32" s="30" t="s">
+      <c r="G32" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H32" s="47" t="s">
+      <c r="H32" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="I32" s="30" t="s">
+      <c r="I32" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="J32" s="30"/>
-      <c r="K32" s="64" t="s">
+      <c r="J32" s="31"/>
+      <c r="K32" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L32" s="30"/>
+      <c r="L32" s="31"/>
     </row>
     <row r="33" ht="39" customHeight="1" spans="1:12">
-      <c r="A33" s="16">
+      <c r="A33" s="17">
         <f>SUM(A32+1)</f>
         <v>21</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="42" t="s">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="G33" s="30" t="s">
+      <c r="G33" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H33" s="47" t="s">
+      <c r="H33" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="I33" s="30" t="s">
+      <c r="I33" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="J33" s="30"/>
-      <c r="K33" s="64" t="s">
+      <c r="J33" s="31"/>
+      <c r="K33" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L33" s="30"/>
+      <c r="L33" s="31"/>
     </row>
     <row r="34" ht="39" customHeight="1" spans="1:12">
-      <c r="A34" s="16">
+      <c r="A34" s="17">
         <f>SUM(A33+1)</f>
         <v>22</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="42" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="F34" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="G34" s="30" t="s">
+      <c r="G34" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H34" s="30" t="s">
+      <c r="H34" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="I34" s="30" t="s">
+      <c r="I34" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="J34" s="30"/>
-      <c r="K34" s="64" t="s">
+      <c r="J34" s="31"/>
+      <c r="K34" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L34" s="30"/>
+      <c r="L34" s="31"/>
     </row>
     <row r="35" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A35" s="23"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
     </row>
     <row r="36" ht="40" customHeight="1" spans="1:12">
-      <c r="A36" s="29">
+      <c r="A36" s="30">
         <f>SUM(22+1)</f>
         <v>23</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="31" t="s">
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="E36" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G36" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H36" s="46" t="s">
+      <c r="H36" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="30" t="s">
+      <c r="I36" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="J36" s="30"/>
-      <c r="K36" s="64" t="s">
+      <c r="J36" s="31"/>
+      <c r="K36" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L36" s="30"/>
+      <c r="L36" s="31"/>
     </row>
     <row r="37" ht="40" customHeight="1" spans="1:12">
-      <c r="A37" s="29">
+      <c r="A37" s="30">
         <f>SUM(A36+1)</f>
         <v>24</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="42" t="s">
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="G37" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H37" s="46" t="s">
+      <c r="H37" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="I37" s="30" t="s">
+      <c r="I37" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="J37" s="30"/>
-      <c r="K37" s="64" t="s">
+      <c r="J37" s="31"/>
+      <c r="K37" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L37" s="30"/>
+      <c r="L37" s="31"/>
     </row>
     <row r="38" ht="40" customHeight="1" spans="1:12">
-      <c r="A38" s="30"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="42" t="s">
+      <c r="A38" s="31"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="G38" s="30" t="s">
+      <c r="G38" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H38" s="46" t="s">
+      <c r="H38" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="I38" s="30" t="s">
+      <c r="I38" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="J38" s="30"/>
-      <c r="K38" s="64" t="s">
+      <c r="J38" s="31"/>
+      <c r="K38" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L38" s="30"/>
+      <c r="L38" s="31"/>
     </row>
     <row r="39" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="32"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="33"/>
     </row>
     <row r="40" ht="38" customHeight="1" spans="1:12">
-      <c r="A40" s="33">
+      <c r="A40" s="34">
         <v>25</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="27" t="s">
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="49" t="s">
+      <c r="E40" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="G40" s="50" t="s">
+      <c r="G40" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="H40" s="50" t="s">
+      <c r="H40" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="I40" s="30" t="s">
+      <c r="I40" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="J40" s="50"/>
-      <c r="K40" s="64" t="s">
+      <c r="J40" s="55"/>
+      <c r="K40" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L40" s="50"/>
+      <c r="L40" s="55"/>
     </row>
     <row r="41" ht="42" customHeight="1" spans="1:12">
-      <c r="A41" s="33">
+      <c r="A41" s="34">
         <f>SUM(A40+1)</f>
         <v>26</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="49" t="s">
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="G41" s="50" t="s">
+      <c r="G41" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="H41" s="50" t="s">
+      <c r="H41" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="I41" s="30" t="s">
+      <c r="I41" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="J41" s="50"/>
-      <c r="K41" s="64" t="s">
+      <c r="J41" s="55"/>
+      <c r="K41" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L41" s="50"/>
-    </row>
-    <row r="42" ht="42" customHeight="1" spans="1:12">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
+      <c r="L41" s="55"/>
+    </row>
+    <row r="42" ht="16" customHeight="1" spans="1:12">
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
     </row>
     <row r="43" ht="42" customHeight="1" spans="1:12">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="G43" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="J43" s="55"/>
+      <c r="K43" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="L43" s="55"/>
     </row>
     <row r="44" ht="42" customHeight="1" spans="1:12">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="J44" s="55"/>
+      <c r="K44" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="L44" s="55"/>
     </row>
     <row r="45" ht="42" customHeight="1" spans="1:12">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
     </row>
     <row r="46" ht="42" customHeight="1" spans="1:12">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="50"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
     </row>
     <row r="47" ht="42" customHeight="1" spans="1:12">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="50"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
     </row>
     <row r="48" ht="42" customHeight="1" spans="1:12">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="50"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
     </row>
     <row r="49" ht="42" customHeight="1" spans="1:12">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
     </row>
     <row r="50" ht="42" customHeight="1" spans="1:12">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="50"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
     </row>
     <row r="51" ht="42" customHeight="1" spans="1:12">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="50"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="55"/>
     </row>
     <row r="52" ht="42" customHeight="1" spans="1:12">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="55"/>
     </row>
     <row r="53" ht="42" customHeight="1" spans="1:12">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="50"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="55"/>
     </row>
     <row r="54" ht="42" customHeight="1" spans="1:12">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="50"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="55"/>
     </row>
     <row r="55" ht="42" customHeight="1" spans="1:12">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="50"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
     </row>
     <row r="56" ht="42" customHeight="1" spans="1:12">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="50"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
     </row>
     <row r="57" ht="42" customHeight="1" spans="1:12">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="50"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
     </row>
     <row r="58" ht="42" customHeight="1" spans="1:12">
-      <c r="A58" s="33"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="50"/>
-      <c r="L58" s="50"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="55"/>
     </row>
     <row r="59" ht="42" customHeight="1" spans="1:12">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="50"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="55"/>
     </row>
     <row r="60" ht="42" customHeight="1" spans="1:12">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="50"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="55"/>
     </row>
     <row r="61" ht="42" customHeight="1" spans="1:12">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="50"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="55"/>
     </row>
     <row r="62" ht="42" customHeight="1" spans="1:12">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="50"/>
-      <c r="L62" s="50"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="55"/>
     </row>
     <row r="63" ht="42" customHeight="1" spans="1:12">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="50"/>
-      <c r="L63" s="50"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="55"/>
+      <c r="L63" s="55"/>
     </row>
     <row r="64" ht="42" customHeight="1" spans="1:12">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
-      <c r="L64" s="50"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="55"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="55"/>
     </row>
     <row r="65" ht="42" customHeight="1" spans="1:12">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="50"/>
-      <c r="L65" s="50"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="55"/>
     </row>
     <row r="66" ht="42" customHeight="1" spans="1:12">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="50"/>
-      <c r="I66" s="50"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="50"/>
-      <c r="L66" s="50"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="55"/>
+      <c r="K66" s="55"/>
+      <c r="L66" s="55"/>
     </row>
     <row r="67" ht="42" customHeight="1" spans="1:12">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="50"/>
-      <c r="L67" s="50"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="55"/>
+      <c r="K67" s="55"/>
+      <c r="L67" s="55"/>
     </row>
     <row r="68" ht="13.5" customHeight="1"/>
     <row r="69" ht="13.5" customHeight="1"/>
@@ -4413,7 +4484,7 @@
     <row r="971" ht="13.5" customHeight="1"/>
     <row r="972" ht="13.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A2:B2"/>
@@ -4430,9 +4501,10 @@
     <mergeCell ref="D22:D30"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D40:D41"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="K8 K10 K34 K40 K41 K12:K20 K22:K30 K32:K33 K36:K37 K38:K39">
+    <dataValidation type="list" allowBlank="1" sqref="K8 K10 K34 K40 K41 K12:K20 K22:K30 K32:K33 K36:K37 K38:K39 K43:K44">
       <formula1>"Passed,Failed,Not Executed,Out of Scope"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Task Management System.xlsx
+++ b/Task Management System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16960" windowHeight="11020"/>
+    <workbookView windowWidth="24020" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="157">
   <si>
     <t>Product Name</t>
   </si>
@@ -486,6 +486,9 @@
     <t>Click All List under Task Section</t>
   </si>
   <si>
+    <t>Open A new page and show a form All task</t>
+  </si>
+  <si>
     <t>All List</t>
   </si>
   <si>
@@ -597,6 +600,9 @@
 4. Check footer link</t>
   </si>
   <si>
+    <t>Footer Link</t>
+  </si>
+  <si>
     <t>Keeping Name of the title blank</t>
   </si>
   <si>
@@ -619,6 +625,71 @@
 2. Add New SBU
 3. Input Name of title blank 
 4. Click on Submit</t>
+  </si>
+  <si>
+    <t>Change Name of the title status = Active</t>
+  </si>
+  <si>
+    <t>Should be active show will be Add Task Section as a Dropdown List</t>
+  </si>
+  <si>
+    <t>1. Dashboard
+2. All List under the SBU
+3. Change Status
+4. Update</t>
+  </si>
+  <si>
+    <t>Change Name of the title status = Inactive</t>
+  </si>
+  <si>
+    <t>Should be inactive don't showAdd Task Section as a Dropdown List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change Name of the title </t>
+  </si>
+  <si>
+    <t>Should be allow update</t>
+  </si>
+  <si>
+    <t>1. Dashboard
+2. All List under the SBU
+3. Change Name of Title
+4. Update</t>
+  </si>
+  <si>
+    <t>Add Task</t>
+  </si>
+  <si>
+    <t>No spelling or grammatical mistakes</t>
+  </si>
+  <si>
+    <t>1. Dashboard
+2. Add  under the Task Section
+3. Check Spelling</t>
+  </si>
+  <si>
+    <t>1. Dashboard
+2. Add  under the Task Section
+3. Keeping all field Blank
+4. Submit</t>
+  </si>
+  <si>
+    <t>Keeping Required Field Blank</t>
+  </si>
+  <si>
+    <t>1. Dashboard
+2. Add  under the Task Section
+3. Keeping required field Blank
+4. Submit</t>
+  </si>
+  <si>
+    <t>Keeping Unrequired Field Blank</t>
+  </si>
+  <si>
+    <t>1. Dashboard
+2. Add  under the Task Section
+3. Keeping unrequired field Blank
+4. Submit</t>
   </si>
 </sst>
 </file>
@@ -632,7 +703,7 @@
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,6 +797,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,6 +815,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman Bold"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1194,7 +1279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1317,6 +1402,17 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1494,152 +1590,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="48" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="48" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1739,9 +1835,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1751,6 +1853,15 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1788,54 +1899,48 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1844,20 +1949,28 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1870,6 +1983,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2131,12 +2250,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L972"/>
+  <dimension ref="A1:L973"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="1"/>
@@ -2168,13 +2287,13 @@
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="39">
+      <c r="E1" s="44">
         <v>45203</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="59"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:12">
       <c r="A2" s="2" t="s">
@@ -2187,15 +2306,15 @@
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="44">
         <v>45206</v>
       </c>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="61">
-        <f>COUNTIF(K8:K142,"Passed")</f>
-        <v>29</v>
+      <c r="L2" s="64">
+        <f>COUNTIF(K8:K143,"Passed")</f>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:12">
@@ -2209,42 +2328,42 @@
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="61">
-        <f>COUNTIF(K8:K142,"Failed")</f>
-        <v>1</v>
+      <c r="L3" s="64">
+        <f>COUNTIF(K8:K143,"Failed")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="11:12">
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="61">
-        <f>COUNTIF(K8:K142,"Not Executed")</f>
+      <c r="L4" s="64">
+        <f>COUNTIF(K8:K143,"Not Executed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="11:12">
-      <c r="K5" s="64" t="s">
+      <c r="K5" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="65">
-        <f>COUNTIF(K8:K142,"Out of Scope")</f>
+      <c r="L5" s="68">
+        <f>COUNTIF(K8:K143,"Out of Scope")</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="34" customHeight="1" spans="11:12">
-      <c r="K6" s="66" t="s">
+      <c r="K6" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="67">
+      <c r="L6" s="70">
         <f>SUM(L2:L5)</f>
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:12">
@@ -2260,28 +2379,28 @@
       <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="47" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="68" t="s">
+      <c r="L7" s="71" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2294,47 +2413,49 @@
         <v>28</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="69" t="s">
+      <c r="I8" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="71" t="s">
+      <c r="J8" s="73"/>
+      <c r="K8" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="72"/>
+      <c r="L8" s="75"/>
     </row>
     <row r="9" ht="13.5" customHeight="1" spans="1:12">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="16"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="76"/>
       <c r="K9" s="15"/>
       <c r="L9" s="16"/>
     </row>
     <row r="10" ht="39" customHeight="1" spans="1:12">
-      <c r="A10" s="17"/>
+      <c r="A10" s="17">
+        <v>2</v>
+      </c>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="52" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="31" t="s">
@@ -2346,42 +2467,42 @@
       <c r="H10" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="73" t="s">
+      <c r="I10" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="74" t="s">
+      <c r="J10" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="75" t="s">
+      <c r="K10" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="55"/>
+      <c r="L10" s="80"/>
     </row>
     <row r="11" ht="13.5" customHeight="1" spans="1:12">
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
     </row>
     <row r="12" ht="39" customHeight="1" spans="1:12">
       <c r="A12" s="17">
-        <f>SUM(1+1)</f>
-        <v>2</v>
+        <f>SUM(2+1)</f>
+        <v>3</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="52" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="31" t="s">
@@ -2393,27 +2514,27 @@
       <c r="H12" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="73" t="s">
+      <c r="I12" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="55"/>
-      <c r="K12" s="71" t="s">
+      <c r="J12" s="31"/>
+      <c r="K12" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="L12" s="55"/>
+      <c r="L12" s="80"/>
     </row>
     <row r="13" ht="39" customHeight="1" spans="1:12">
       <c r="A13" s="17">
         <f t="shared" ref="A13:A20" si="0">SUM(A12+1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="49" t="s">
         <v>44</v>
       </c>
       <c r="G13" s="31" t="s">
@@ -2425,21 +2546,21 @@
       <c r="I13" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="55"/>
-      <c r="K13" s="71" t="s">
+      <c r="J13" s="31"/>
+      <c r="K13" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="55"/>
+      <c r="L13" s="80"/>
     </row>
     <row r="14" ht="39" customHeight="1" spans="1:12">
       <c r="A14" s="17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="48" t="s">
         <v>51</v>
       </c>
       <c r="F14" s="31" t="s">
@@ -2454,24 +2575,24 @@
       <c r="I14" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="55"/>
-      <c r="K14" s="71" t="s">
+      <c r="J14" s="31"/>
+      <c r="K14" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="55"/>
+      <c r="L14" s="80"/>
     </row>
     <row r="15" ht="39" customHeight="1" spans="1:12">
       <c r="A15" s="17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="49" t="s">
         <v>44</v>
       </c>
       <c r="G15" s="31" t="s">
@@ -2483,27 +2604,27 @@
       <c r="I15" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="55"/>
-      <c r="K15" s="71" t="s">
+      <c r="J15" s="31"/>
+      <c r="K15" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="55"/>
+      <c r="L15" s="80"/>
     </row>
     <row r="16" ht="39" customHeight="1" spans="1:12">
       <c r="A16" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="52" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="49" t="s">
         <v>48</v>
       </c>
       <c r="H16" s="31" t="s">
@@ -2512,50 +2633,50 @@
       <c r="I16" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="55"/>
-      <c r="K16" s="71" t="s">
+      <c r="J16" s="31"/>
+      <c r="K16" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="55"/>
+      <c r="L16" s="80"/>
     </row>
     <row r="17" ht="39" customHeight="1" spans="1:12">
       <c r="A17" s="17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="52" t="s">
         <v>60</v>
       </c>
       <c r="F17" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="49" t="s">
         <v>48</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="69" t="s">
+      <c r="I17" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="55"/>
-      <c r="K17" s="71" t="s">
+      <c r="J17" s="31"/>
+      <c r="K17" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="L17" s="55"/>
+      <c r="L17" s="80"/>
     </row>
     <row r="18" ht="39" customHeight="1" spans="1:12">
       <c r="A18" s="17">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="52" t="s">
         <v>63</v>
       </c>
       <c r="F18" s="31" t="s">
@@ -2570,21 +2691,21 @@
       <c r="I18" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="55"/>
-      <c r="K18" s="71" t="s">
+      <c r="J18" s="31"/>
+      <c r="K18" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="55"/>
+      <c r="L18" s="80"/>
     </row>
     <row r="19" ht="39" customHeight="1" spans="1:12">
       <c r="A19" s="17">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="52" t="s">
         <v>67</v>
       </c>
       <c r="F19" s="31" t="s">
@@ -2596,24 +2717,24 @@
       <c r="H19" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="77" t="s">
+      <c r="I19" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="55"/>
-      <c r="K19" s="71" t="s">
+      <c r="J19" s="31"/>
+      <c r="K19" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="55"/>
+      <c r="L19" s="80"/>
     </row>
     <row r="20" ht="39" customHeight="1" spans="1:12">
       <c r="A20" s="17">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="52" t="s">
         <v>70</v>
       </c>
       <c r="F20" s="31" t="s">
@@ -2625,11 +2746,11 @@
       <c r="H20" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="78" t="s">
+      <c r="I20" s="83" t="s">
         <v>73</v>
       </c>
       <c r="J20" s="31"/>
-      <c r="K20" s="71" t="s">
+      <c r="K20" s="74" t="s">
         <v>34</v>
       </c>
       <c r="L20" s="31"/>
@@ -2639,7 +2760,7 @@
       <c r="B21" s="25"/>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
-      <c r="E21" s="50"/>
+      <c r="E21" s="55"/>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
@@ -2650,7 +2771,7 @@
     </row>
     <row r="22" ht="39" customHeight="1" spans="1:12">
       <c r="A22" s="17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>74</v>
@@ -2659,7 +2780,7 @@
       <c r="D22" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="52" t="s">
         <v>76</v>
       </c>
       <c r="F22" s="31" t="s">
@@ -2668,14 +2789,14 @@
       <c r="G22" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="51" t="s">
+      <c r="H22" s="56" t="s">
         <v>78</v>
       </c>
       <c r="I22" s="31" t="s">
         <v>79</v>
       </c>
       <c r="J22" s="31"/>
-      <c r="K22" s="71" t="s">
+      <c r="K22" s="74" t="s">
         <v>34</v>
       </c>
       <c r="L22" s="31"/>
@@ -2683,12 +2804,12 @@
     <row r="23" ht="39" customHeight="1" spans="1:12">
       <c r="A23" s="17">
         <f t="shared" ref="A23:A30" si="1">SUM(A22+1)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="52" t="s">
         <v>80</v>
       </c>
       <c r="F23" s="31" t="s">
@@ -2697,14 +2818,14 @@
       <c r="G23" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="51" t="s">
+      <c r="H23" s="56" t="s">
         <v>78</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>82</v>
       </c>
       <c r="J23" s="31"/>
-      <c r="K23" s="71" t="s">
+      <c r="K23" s="74" t="s">
         <v>34</v>
       </c>
       <c r="L23" s="31"/>
@@ -2712,12 +2833,12 @@
     <row r="24" ht="39" customHeight="1" spans="1:12">
       <c r="A24" s="17">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="52" t="s">
         <v>83</v>
       </c>
       <c r="F24" s="31" t="s">
@@ -2726,14 +2847,14 @@
       <c r="G24" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="51" t="s">
+      <c r="H24" s="56" t="s">
         <v>78</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>85</v>
       </c>
       <c r="J24" s="31"/>
-      <c r="K24" s="71" t="s">
+      <c r="K24" s="74" t="s">
         <v>34</v>
       </c>
       <c r="L24" s="31"/>
@@ -2741,12 +2862,12 @@
     <row r="25" ht="39" customHeight="1" spans="1:12">
       <c r="A25" s="17">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="52" t="s">
         <v>86</v>
       </c>
       <c r="F25" s="31" t="s">
@@ -2755,14 +2876,14 @@
       <c r="G25" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H25" s="52" t="s">
+      <c r="H25" s="57" t="s">
         <v>88</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>89</v>
       </c>
       <c r="J25" s="31"/>
-      <c r="K25" s="71" t="s">
+      <c r="K25" s="74" t="s">
         <v>34</v>
       </c>
       <c r="L25" s="31"/>
@@ -2770,12 +2891,12 @@
     <row r="26" ht="39" customHeight="1" spans="1:12">
       <c r="A26" s="17">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="52" t="s">
         <v>90</v>
       </c>
       <c r="F26" s="31" t="s">
@@ -2784,14 +2905,14 @@
       <c r="G26" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="52" t="s">
+      <c r="H26" s="57" t="s">
         <v>91</v>
       </c>
       <c r="I26" s="31" t="s">
         <v>92</v>
       </c>
       <c r="J26" s="31"/>
-      <c r="K26" s="71" t="s">
+      <c r="K26" s="74" t="s">
         <v>34</v>
       </c>
       <c r="L26" s="31"/>
@@ -2799,12 +2920,12 @@
     <row r="27" ht="39" customHeight="1" spans="1:12">
       <c r="A27" s="17">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="52" t="s">
         <v>93</v>
       </c>
       <c r="F27" s="31" t="s">
@@ -2813,14 +2934,14 @@
       <c r="G27" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="51" t="s">
+      <c r="H27" s="56" t="s">
         <v>78</v>
       </c>
       <c r="I27" s="31" t="s">
         <v>95</v>
       </c>
       <c r="J27" s="31"/>
-      <c r="K27" s="71" t="s">
+      <c r="K27" s="74" t="s">
         <v>34</v>
       </c>
       <c r="L27" s="31"/>
@@ -2828,12 +2949,12 @@
     <row r="28" ht="39" customHeight="1" spans="1:12">
       <c r="A28" s="17">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="52" t="s">
         <v>96</v>
       </c>
       <c r="F28" s="31" t="s">
@@ -2842,14 +2963,14 @@
       <c r="G28" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="51" t="s">
+      <c r="H28" s="56" t="s">
         <v>78</v>
       </c>
       <c r="I28" s="31" t="s">
         <v>98</v>
       </c>
       <c r="J28" s="31"/>
-      <c r="K28" s="71" t="s">
+      <c r="K28" s="74" t="s">
         <v>34</v>
       </c>
       <c r="L28" s="31"/>
@@ -2857,12 +2978,12 @@
     <row r="29" ht="39" customHeight="1" spans="1:12">
       <c r="A29" s="17">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="47" t="s">
+      <c r="E29" s="52" t="s">
         <v>99</v>
       </c>
       <c r="F29" s="31" t="s">
@@ -2871,14 +2992,14 @@
       <c r="G29" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H29" s="52" t="s">
+      <c r="H29" s="57" t="s">
         <v>101</v>
       </c>
       <c r="I29" s="31" t="s">
         <v>102</v>
       </c>
       <c r="J29" s="31"/>
-      <c r="K29" s="71" t="s">
+      <c r="K29" s="74" t="s">
         <v>34</v>
       </c>
       <c r="L29" s="31"/>
@@ -2886,26 +3007,28 @@
     <row r="30" ht="39" customHeight="1" spans="1:12">
       <c r="A30" s="17">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="F30" s="31"/>
+      <c r="F30" s="31" t="s">
+        <v>104</v>
+      </c>
       <c r="G30" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H30" s="52" t="s">
-        <v>104</v>
+      <c r="H30" s="57" t="s">
+        <v>105</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J30" s="31"/>
-      <c r="K30" s="71" t="s">
+      <c r="K30" s="74" t="s">
         <v>34</v>
       </c>
       <c r="L30" s="31"/>
@@ -2915,7 +3038,7 @@
       <c r="B31" s="25"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
-      <c r="E31" s="50"/>
+      <c r="E31" s="55"/>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
@@ -2926,33 +3049,33 @@
     </row>
     <row r="32" ht="39" customHeight="1" spans="1:12">
       <c r="A32" s="17">
-        <f>SUM(19+1)</f>
-        <v>20</v>
+        <f>SUM(20+1)</f>
+        <v>21</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="47" t="s">
+      <c r="E32" s="52" t="s">
         <v>80</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G32" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H32" s="52" t="s">
+      <c r="H32" s="57" t="s">
         <v>78</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J32" s="31"/>
-      <c r="K32" s="71" t="s">
+      <c r="K32" s="74" t="s">
         <v>34</v>
       </c>
       <c r="L32" s="31"/>
@@ -2960,28 +3083,28 @@
     <row r="33" ht="39" customHeight="1" spans="1:12">
       <c r="A33" s="17">
         <f>SUM(A32+1)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
-      <c r="E33" s="47" t="s">
-        <v>109</v>
+      <c r="E33" s="52" t="s">
+        <v>110</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G33" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H33" s="52" t="s">
-        <v>111</v>
+      <c r="H33" s="57" t="s">
+        <v>112</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J33" s="31"/>
-      <c r="K33" s="71" t="s">
+      <c r="K33" s="74" t="s">
         <v>34</v>
       </c>
       <c r="L33" s="31"/>
@@ -2989,13 +3112,13 @@
     <row r="34" ht="39" customHeight="1" spans="1:12">
       <c r="A34" s="17">
         <f>SUM(A33+1)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
-      <c r="E34" s="47" t="s">
-        <v>113</v>
+      <c r="E34" s="52" t="s">
+        <v>114</v>
       </c>
       <c r="F34" s="31" t="s">
         <v>77</v>
@@ -3007,10 +3130,10 @@
         <v>78</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J34" s="31"/>
-      <c r="K34" s="71" t="s">
+      <c r="K34" s="74" t="s">
         <v>34</v>
       </c>
       <c r="L34" s="31"/>
@@ -3020,42 +3143,42 @@
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
       <c r="K35" s="29"/>
       <c r="L35" s="29"/>
     </row>
     <row r="36" ht="40" customHeight="1" spans="1:12">
       <c r="A36" s="30">
-        <f>SUM(22+1)</f>
-        <v>23</v>
+        <f>SUM(23+1)</f>
+        <v>24</v>
       </c>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
       <c r="D36" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="47" t="s">
         <v>116</v>
       </c>
+      <c r="E36" s="52" t="s">
+        <v>117</v>
+      </c>
       <c r="F36" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G36" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H36" s="51" t="s">
+      <c r="H36" s="56" t="s">
         <v>78</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J36" s="31"/>
-      <c r="K36" s="71" t="s">
+      <c r="K36" s="74" t="s">
         <v>34</v>
       </c>
       <c r="L36" s="31"/>
@@ -3063,54 +3186,57 @@
     <row r="37" ht="40" customHeight="1" spans="1:12">
       <c r="A37" s="30">
         <f>SUM(A36+1)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
-      <c r="E37" s="47" t="s">
-        <v>119</v>
+      <c r="E37" s="52" t="s">
+        <v>120</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G37" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H37" s="51" t="s">
+      <c r="H37" s="56" t="s">
         <v>78</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J37" s="31"/>
-      <c r="K37" s="71" t="s">
+      <c r="K37" s="74" t="s">
         <v>34</v>
       </c>
       <c r="L37" s="31"/>
     </row>
     <row r="38" ht="40" customHeight="1" spans="1:12">
-      <c r="A38" s="31"/>
+      <c r="A38" s="30">
+        <f>SUM(A37+1)</f>
+        <v>26</v>
+      </c>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
-      <c r="E38" s="47" t="s">
-        <v>122</v>
+      <c r="E38" s="52" t="s">
+        <v>123</v>
       </c>
       <c r="F38" s="31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G38" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H38" s="51" t="s">
+      <c r="H38" s="56" t="s">
         <v>78</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J38" s="31"/>
-      <c r="K38" s="71" t="s">
+      <c r="K38" s="74" t="s">
         <v>34</v>
       </c>
       <c r="L38" s="31"/>
@@ -3120,465 +3246,591 @@
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
-      <c r="E39" s="50"/>
+      <c r="E39" s="55"/>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
       <c r="I39" s="33"/>
       <c r="J39" s="33"/>
-      <c r="K39" s="79"/>
+      <c r="K39" s="84"/>
       <c r="L39" s="33"/>
     </row>
     <row r="40" ht="38" customHeight="1" spans="1:12">
       <c r="A40" s="34">
-        <v>25</v>
-      </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="E40" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="F40" s="54" t="s">
+      <c r="E40" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="G40" s="55" t="s">
+      <c r="F40" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="H40" s="55" t="s">
+      <c r="G40" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H40" s="31" t="s">
         <v>78</v>
       </c>
       <c r="I40" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="J40" s="55"/>
-      <c r="K40" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="J40" s="31"/>
+      <c r="K40" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="L40" s="55"/>
+      <c r="L40" s="80"/>
     </row>
     <row r="41" ht="42" customHeight="1" spans="1:12">
       <c r="A41" s="34">
         <f>SUM(A40+1)</f>
-        <v>26</v>
-      </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="F41" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="G41" s="55" t="s">
+      <c r="F41" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H41" s="55" t="s">
+      <c r="H41" s="31" t="s">
         <v>78</v>
       </c>
       <c r="I41" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="J41" s="55"/>
-      <c r="K41" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="J41" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="K41" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="L41" s="80"/>
+    </row>
+    <row r="42" ht="16" customHeight="1" spans="1:12">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+    </row>
+    <row r="43" ht="42" customHeight="1" spans="1:12">
+      <c r="A43" s="34">
+        <v>29</v>
+      </c>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="J43" s="31"/>
+      <c r="K43" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="L41" s="55"/>
-    </row>
-    <row r="42" ht="16" customHeight="1" spans="1:12">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-    </row>
-    <row r="43" ht="42" customHeight="1" spans="1:12">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="F43" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="G43" s="55" t="s">
+      <c r="L43" s="80"/>
+    </row>
+    <row r="44" ht="42" customHeight="1" spans="1:12">
+      <c r="A44" s="34">
+        <v>30</v>
+      </c>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="H43" s="55" t="s">
+      <c r="H44" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="I43" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="J43" s="55"/>
-      <c r="K43" s="71" t="s">
+      <c r="I44" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="J44" s="31"/>
+      <c r="K44" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="L43" s="55"/>
-    </row>
-    <row r="44" ht="42" customHeight="1" spans="1:12">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="F44" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="G44" s="55" t="s">
+      <c r="L44" s="80"/>
+    </row>
+    <row r="45" ht="22" customHeight="1" spans="1:12">
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="86"/>
+    </row>
+    <row r="46" ht="42" customHeight="1" spans="1:12">
+      <c r="A46" s="34">
         <v>31</v>
       </c>
-      <c r="H44" s="55" t="s">
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="I44" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="J44" s="55"/>
-      <c r="K44" s="71" t="s">
+      <c r="I46" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="J46" s="31"/>
+      <c r="K46" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="L44" s="55"/>
-    </row>
-    <row r="45" ht="42" customHeight="1" spans="1:12">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="55"/>
-    </row>
-    <row r="46" ht="42" customHeight="1" spans="1:12">
-      <c r="A46" s="34"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="55"/>
+      <c r="L46" s="80"/>
     </row>
     <row r="47" ht="42" customHeight="1" spans="1:12">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
+      <c r="A47" s="34">
+        <f>SUM(A46+1)</f>
+        <v>32</v>
+      </c>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I47" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="J47" s="31"/>
+      <c r="K47" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="L47" s="80"/>
     </row>
     <row r="48" ht="42" customHeight="1" spans="1:12">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
-    </row>
-    <row r="49" ht="42" customHeight="1" spans="1:12">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="55"/>
+      <c r="A48" s="34">
+        <f>SUM(A47+1)</f>
+        <v>33</v>
+      </c>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I48" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="J48" s="31"/>
+      <c r="K48" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="L48" s="80"/>
+    </row>
+    <row r="49" ht="19" customHeight="1" spans="1:12">
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="86"/>
+      <c r="L49" s="86"/>
     </row>
     <row r="50" ht="42" customHeight="1" spans="1:12">
-      <c r="A50" s="34"/>
+      <c r="A50" s="34">
+        <v>34</v>
+      </c>
       <c r="B50" s="34"/>
       <c r="C50" s="34"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="55"/>
+      <c r="D50" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I50" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="J50" s="31"/>
+      <c r="K50" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="L50" s="80"/>
     </row>
     <row r="51" ht="42" customHeight="1" spans="1:12">
-      <c r="A51" s="34"/>
+      <c r="A51" s="34">
+        <f>SUM(A50+1)</f>
+        <v>35</v>
+      </c>
       <c r="B51" s="34"/>
       <c r="C51" s="34"/>
       <c r="D51" s="28"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="55"/>
-      <c r="L51" s="55"/>
+      <c r="E51" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I51" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="J51" s="31"/>
+      <c r="K51" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="L51" s="80"/>
     </row>
     <row r="52" ht="42" customHeight="1" spans="1:12">
-      <c r="A52" s="34"/>
+      <c r="A52" s="34">
+        <f>SUM(A51+1)</f>
+        <v>36</v>
+      </c>
       <c r="B52" s="34"/>
       <c r="C52" s="34"/>
       <c r="D52" s="28"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="55"/>
+      <c r="E52" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I52" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="J52" s="31"/>
+      <c r="K52" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="L52" s="80"/>
     </row>
     <row r="53" ht="42" customHeight="1" spans="1:12">
-      <c r="A53" s="34"/>
+      <c r="A53" s="34">
+        <f>SUM(A52+1)</f>
+        <v>37</v>
+      </c>
       <c r="B53" s="34"/>
       <c r="C53" s="34"/>
       <c r="D53" s="28"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="55"/>
-      <c r="L53" s="55"/>
+      <c r="E53" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="J53" s="31"/>
+      <c r="K53" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="L53" s="80"/>
     </row>
     <row r="54" ht="42" customHeight="1" spans="1:12">
       <c r="A54" s="34"/>
       <c r="B54" s="34"/>
       <c r="C54" s="34"/>
       <c r="D54" s="28"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="55"/>
-      <c r="K54" s="55"/>
-      <c r="L54" s="55"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="80"/>
     </row>
     <row r="55" ht="42" customHeight="1" spans="1:12">
       <c r="A55" s="34"/>
       <c r="B55" s="34"/>
       <c r="C55" s="34"/>
       <c r="D55" s="28"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="55"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="80"/>
+      <c r="L55" s="80"/>
     </row>
     <row r="56" ht="42" customHeight="1" spans="1:12">
       <c r="A56" s="34"/>
       <c r="B56" s="34"/>
       <c r="C56" s="34"/>
       <c r="D56" s="28"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="55"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="80"/>
+      <c r="L56" s="80"/>
     </row>
     <row r="57" ht="42" customHeight="1" spans="1:12">
       <c r="A57" s="34"/>
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
       <c r="D57" s="28"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="55"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="80"/>
+      <c r="L57" s="80"/>
     </row>
     <row r="58" ht="42" customHeight="1" spans="1:12">
       <c r="A58" s="34"/>
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
       <c r="D58" s="28"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="55"/>
-      <c r="L58" s="55"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="80"/>
+      <c r="L58" s="80"/>
     </row>
     <row r="59" ht="42" customHeight="1" spans="1:12">
       <c r="A59" s="34"/>
       <c r="B59" s="34"/>
       <c r="C59" s="34"/>
       <c r="D59" s="28"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="55"/>
-      <c r="L59" s="55"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="80"/>
+      <c r="L59" s="80"/>
     </row>
     <row r="60" ht="42" customHeight="1" spans="1:12">
       <c r="A60" s="34"/>
       <c r="B60" s="34"/>
       <c r="C60" s="34"/>
       <c r="D60" s="28"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="55"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="55"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="80"/>
+      <c r="L60" s="80"/>
     </row>
     <row r="61" ht="42" customHeight="1" spans="1:12">
       <c r="A61" s="34"/>
       <c r="B61" s="34"/>
       <c r="C61" s="34"/>
       <c r="D61" s="28"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="55"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="80"/>
     </row>
     <row r="62" ht="42" customHeight="1" spans="1:12">
       <c r="A62" s="34"/>
       <c r="B62" s="34"/>
       <c r="C62" s="34"/>
       <c r="D62" s="28"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="55"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="80"/>
+      <c r="L62" s="80"/>
     </row>
     <row r="63" ht="42" customHeight="1" spans="1:12">
       <c r="A63" s="34"/>
       <c r="B63" s="34"/>
       <c r="C63" s="34"/>
       <c r="D63" s="28"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="55"/>
-      <c r="L63" s="55"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="80"/>
+      <c r="L63" s="80"/>
     </row>
     <row r="64" ht="42" customHeight="1" spans="1:12">
       <c r="A64" s="34"/>
       <c r="B64" s="34"/>
       <c r="C64" s="34"/>
       <c r="D64" s="28"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="55"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="80"/>
+      <c r="L64" s="80"/>
     </row>
     <row r="65" ht="42" customHeight="1" spans="1:12">
       <c r="A65" s="34"/>
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
       <c r="D65" s="28"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="55"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="80"/>
+      <c r="L65" s="80"/>
     </row>
     <row r="66" ht="42" customHeight="1" spans="1:12">
       <c r="A66" s="34"/>
       <c r="B66" s="34"/>
       <c r="C66" s="34"/>
       <c r="D66" s="28"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
-      <c r="K66" s="55"/>
-      <c r="L66" s="55"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="80"/>
+      <c r="L66" s="80"/>
     </row>
     <row r="67" ht="42" customHeight="1" spans="1:12">
       <c r="A67" s="34"/>
       <c r="B67" s="34"/>
       <c r="C67" s="34"/>
       <c r="D67" s="28"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="55"/>
-      <c r="K67" s="55"/>
-      <c r="L67" s="55"/>
-    </row>
-    <row r="68" ht="13.5" customHeight="1"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="80"/>
+      <c r="L67" s="80"/>
+    </row>
+    <row r="68" ht="42" customHeight="1" spans="1:12">
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="80"/>
+      <c r="L68" s="80"/>
+    </row>
     <row r="69" ht="13.5" customHeight="1"/>
     <row r="70" ht="13.5" customHeight="1"/>
     <row r="71" ht="13.5" customHeight="1"/>
@@ -4483,8 +4735,9 @@
     <row r="970" ht="13.5" customHeight="1"/>
     <row r="971" ht="13.5" customHeight="1"/>
     <row r="972" ht="13.5" customHeight="1"/>
+    <row r="973" ht="13.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="25">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A2:B2"/>
@@ -4493,18 +4746,26 @@
     <mergeCell ref="B22:B30"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B46:B48"/>
     <mergeCell ref="C12:C20"/>
     <mergeCell ref="C22:C30"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C46:C48"/>
     <mergeCell ref="D12:D20"/>
     <mergeCell ref="D22:D30"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="D36:D38"/>
     <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D46:D48"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="K8 K10 K34 K40 K41 K12:K20 K22:K30 K32:K33 K36:K37 K38:K39 K43:K44">
+    <dataValidation type="list" allowBlank="1" sqref="K8 K10 K34 K40 K41 K45 K46 K47 K48 K50 K51 K52 K53 K12:K20 K22:K30 K32:K33 K36:K37 K38:K39 K43:K44">
       <formula1>"Passed,Failed,Not Executed,Out of Scope"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4524,6 +4785,7 @@
     <hyperlink ref="H30" r:id="rId7" display="All List"/>
     <hyperlink ref="H32" r:id="rId8" display="Click"/>
     <hyperlink ref="H33" r:id="rId9" display="ALL List"/>
+    <hyperlink ref="J41" r:id="rId10" display="Footer Link"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="landscape"/>

--- a/Task Management System.xlsx
+++ b/Task Management System.xlsx
@@ -779,7 +779,7 @@
       <b/>
       <u/>
       <sz val="14"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
@@ -2253,9 +2253,9 @@
   <dimension ref="A1:L973"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51:A53"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="1"/>
@@ -2288,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="44">
-        <v>45203</v>
+        <v>45211</v>
       </c>
       <c r="K1" s="61" t="s">
         <v>3</v>
@@ -2307,7 +2307,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="44">
-        <v>45206</v>
+        <v>45214</v>
       </c>
       <c r="K2" s="63" t="s">
         <v>7</v>

--- a/Task Management System.xlsx
+++ b/Task Management System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24020" windowHeight="11020"/>
+    <workbookView windowWidth="29060" windowHeight="14760"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="209">
   <si>
     <t>Product Name</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Module Name</t>
   </si>
   <si>
-    <t>Website App</t>
+    <t>Web App</t>
   </si>
   <si>
     <t>TC End Date</t>
@@ -106,7 +106,7 @@
 Compatibility Testing</t>
   </si>
   <si>
-    <t>running the site in different browsers</t>
+    <t>Running the site in different browsers</t>
   </si>
   <si>
     <t>Should run in different browsers</t>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>Failed</t>
+  </si>
+  <si>
+    <t>Solve</t>
   </si>
   <si>
     <t>Sign In</t>
@@ -603,6 +606,85 @@
     <t>Footer Link</t>
   </si>
   <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Ensure that the admin can view the task table with all relevant information.</t>
+  </si>
+  <si>
+    <t>Each row should represent a different task with accurate details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in as an admin.
+2. Navigate to the dashboard.
+</t>
+  </si>
+  <si>
+    <t>Ensure that the regular user can view the task table with limited information.</t>
+  </si>
+  <si>
+    <t>The task table should be displayed on the user dashboard.</t>
+  </si>
+  <si>
+    <t>1. Log in as a regular user.
+2. Navigate to the dashboard.</t>
+  </si>
+  <si>
+    <t>Verify that the admin can update the task status.</t>
+  </si>
+  <si>
+    <t>The task status should be updated.</t>
+  </si>
+  <si>
+    <t>1. Log in as an admin.
+2. Locate a task in the task table.
+3. Change the status of the task (e.g., from "Pending" to "Completed").</t>
+  </si>
+  <si>
+    <t>Verify that regular users can filter tasks by the "Not Started" status.</t>
+  </si>
+  <si>
+    <t>The task table should only display tasks with the "Not Started" status.</t>
+  </si>
+  <si>
+    <t>1. Log in as an admin.
+2. Navigate to the dashboard.
+3. Apply a filter to show tasks with the status "Not Started."</t>
+  </si>
+  <si>
+    <t>Confirm that regular users can filter tasks by the "Approved" status.</t>
+  </si>
+  <si>
+    <t>The task table should only display tasks with the "Approved" status.</t>
+  </si>
+  <si>
+    <t>1. Log in as an admin.
+2. Navigate to the dashboard.
+3. Apply a filter to show tasks with the status "Approved."</t>
+  </si>
+  <si>
+    <t>Ensure that regular users can filter tasks by the "On-Progress" status.</t>
+  </si>
+  <si>
+    <t>The task table should only display tasks with the "On-Progress" status.</t>
+  </si>
+  <si>
+    <t>1. Log in as an admin.
+2. Navigate to the dashboard.
+3. Apply a filter to show tasks with the status "On-Progress."</t>
+  </si>
+  <si>
+    <t>Validate that regular users can filter tasks by the "Rejected" status.</t>
+  </si>
+  <si>
+    <t>The task table should only display tasks with the "Rejected" status.</t>
+  </si>
+  <si>
+    <t>1. Log in as an admin.
+2. Navigate to the dashboard.
+3. Apply a filter to show tasks with the status "Rejected."</t>
+  </si>
+  <si>
     <t>Keeping Name of the title blank</t>
   </si>
   <si>
@@ -627,48 +709,85 @@
 4. Click on Submit</t>
   </si>
   <si>
+    <t>Ensure that admin can view the list of SBUs with the necessary information.</t>
+  </si>
+  <si>
+    <t>The SBU table should be displayed with columns: SL (Serial Number), Name, Status, TimeStamps, and Action.</t>
+  </si>
+  <si>
+    <t>1. Log in as an admin.
+2. Click All List
+3. Navigate to the page displaying the list of SBUs.</t>
+  </si>
+  <si>
     <t>Change Name of the title status = Active</t>
   </si>
   <si>
     <t>Should be active show will be Add Task Section as a Dropdown List</t>
   </si>
   <si>
-    <t>1. Dashboard
+    <t>1. Log in as an admin.
 2. All List under the SBU
 3. Change Status
 4. Update</t>
   </si>
   <si>
+    <t>Verify that admin can view timestamps for a specific SBU.</t>
+  </si>
+  <si>
+    <t>Timestamps for the selected SBU should be displayed, including create date, update date, create by, and update by.</t>
+  </si>
+  <si>
+    <t>1. Log in as an admin.
+2. Click All List.
+3. Navigate to the page displaying the list of SBUs.
+4. Click on the timestamps of a specific SBU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm that admin can navigate to another page to edit an SBU.
+</t>
+  </si>
+  <si>
+    <t>The user should be redirected to a page where they can edit the details of the selected SBU.</t>
+  </si>
+  <si>
+    <t>1. Log in as an admin.
+2. Click all list
+3. Navigate to the page displaying the list of SBUs.
+4. Click on the "Edit" button for a specific SBU.</t>
+  </si>
+  <si>
+    <t>Verify that admin can delete an SBU.</t>
+  </si>
+  <si>
+    <t>The selected SBU should be deleted from the list.</t>
+  </si>
+  <si>
+    <t>1. Log in as an admin.
+2. Click All List
+3. Navigate to the page displaying the list of SBUs.
+4. Click on the "Delete" button for a specific SBU.
+5. Confirm the deletion.</t>
+  </si>
+  <si>
     <t>Change Name of the title status = Inactive</t>
   </si>
   <si>
     <t>Should be inactive don't showAdd Task Section as a Dropdown List</t>
   </si>
   <si>
-    <t xml:space="preserve">Change Name of the title </t>
-  </si>
-  <si>
-    <t>Should be allow update</t>
-  </si>
-  <si>
-    <t>1. Dashboard
-2. All List under the SBU
-3. Change Name of Title
-4. Update</t>
-  </si>
-  <si>
     <t>Add Task</t>
   </si>
   <si>
     <t>No spelling or grammatical mistakes</t>
   </si>
   <si>
-    <t>1. Dashboard
+    <t>1. Log in as an admin.
 2. Add  under the Task Section
 3. Check Spelling</t>
   </si>
   <si>
-    <t>1. Dashboard
+    <t>1. Log in as an admin.
 2. Add  under the Task Section
 3. Keeping all field Blank
 4. Submit</t>
@@ -677,7 +796,10 @@
     <t>Keeping Required Field Blank</t>
   </si>
   <si>
-    <t>1. Dashboard
+    <t>Task Approval Steps : Receving Documents from PMD</t>
+  </si>
+  <si>
+    <t>1. Log in as an admin.
 2. Add  under the Task Section
 3. Keeping required field Blank
 4. Submit</t>
@@ -686,10 +808,85 @@
     <t>Keeping Unrequired Field Blank</t>
   </si>
   <si>
-    <t>1. Dashboard
+    <t>1. Log in as an admin.
 2. Add  under the Task Section
 3. Keeping unrequired field Blank
 4. Submit</t>
+  </si>
+  <si>
+    <t>All Task List</t>
+  </si>
+  <si>
+    <t>1. Log in as an admin.
+2. Click Task Section
+3. Then click All List
+4. Check Spelling</t>
+  </si>
+  <si>
+    <t>Ensure that admins can view the list of tasks with necessary information.</t>
+  </si>
+  <si>
+    <t>1. Log in as an admin.
+2. Click Task Section
+3. Then click All List
+4.Navigate to the page displaying the list of tasks.</t>
+  </si>
+  <si>
+    <t>Verify that admins can view all steps for a specific task.</t>
+  </si>
+  <si>
+    <t>The steps associated with the selected task should be displayed.</t>
+  </si>
+  <si>
+    <t>1. Log in as an admin.
+2. Click Task Section
+3. Then click All List
+4. Click on the "Show" button for a specific task.</t>
+  </si>
+  <si>
+    <t>Confirm that admins can navigate to another page to edit a task.</t>
+  </si>
+  <si>
+    <t>The admin should be redirected to a page where they can edit the details of the selected task.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in as an admin.
+2. Navigate to the page displaying the list of tasks.
+3. Click on the "Edit" button for a specific task.
+</t>
+  </si>
+  <si>
+    <t>Verify that admins can delete a task.</t>
+  </si>
+  <si>
+    <t>The selected task should be deleted from the list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in as an admin.
+2. Navigate to the page displaying the list of tasks.
+3. Click on the "Delete" button for a specific task.
+4. Confirm the deletion.
+</t>
+  </si>
+  <si>
+    <t>Show Task</t>
+  </si>
+  <si>
+    <t>Ensure that users, including admins, can view all details of a selected task.</t>
+  </si>
+  <si>
+    <t>Details should include Task ID, Task Description, Assigned User, Status, and any other relevant information.</t>
+  </si>
+  <si>
+    <t>1. Log in as a user or admin.
+2. Navigate to the page displaying the list of tasks.
+3. Click on a specific task to view its details.</t>
+  </si>
+  <si>
+    <t>Ensure that the "Time Left" for a task is updated automatically when the last date or expected date is input.</t>
+  </si>
+  <si>
+    <t>The task details should be updated with the new last date or expected date.</t>
   </si>
 </sst>
 </file>
@@ -698,12 +895,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -712,54 +909,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="Times New Roman Bold"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman Bold"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman Bold"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FF0563C1"/>
-      <name val="Times New Roman Bold"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman Bold"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman Bold"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman Bold"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman Bold"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
+      <name val="Times New Roman Bold"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman Bold"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
@@ -771,14 +953,8 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <name val="Times New Roman Bold"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="14"/>
       <color rgb="FF800080"/>
       <name val="Times New Roman Bold"/>
       <charset val="134"/>
@@ -790,28 +966,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman Bold"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman Bold"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman Bold"/>
       <charset val="134"/>
@@ -820,30 +975,20 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
+      <name val="Times New Roman Bold"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,11 +1001,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -872,10 +1017,34 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -901,6 +1070,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -908,26 +1085,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -939,31 +1109,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -989,7 +1143,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1046,6 +1200,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6D9F0"/>
         <bgColor rgb="FFC6D9F0"/>
       </patternFill>
@@ -1094,6 +1260,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF93C47D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1106,13 +1290,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,13 +1332,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,25 +1362,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,19 +1398,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,67 +1434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1274,7 +1446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1490,6 +1662,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1523,17 +1710,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1553,6 +1736,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1561,185 +1759,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="48" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1754,7 +1929,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1763,233 +1938,335 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2250,1723 +2527,2317 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L973"/>
+  <dimension ref="A1:L975"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.859375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.859375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.859375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1171875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.4296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.859375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.2890625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
-    <col min="13" max="26" width="9" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="14.4296875" style="1"/>
+    <col min="1" max="1" width="6.859375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.859375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.859375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.1171875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.4296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.859375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.2890625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.6875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.234375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="2" customWidth="1"/>
+    <col min="13" max="26" width="9" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="14.4296875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="44">
-        <v>45211</v>
-      </c>
-      <c r="K1" s="61" t="s">
+      <c r="E1" s="58"/>
+      <c r="K1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="62"/>
+      <c r="L1" s="80"/>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:12">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="44">
-        <v>45214</v>
-      </c>
-      <c r="K2" s="63" t="s">
+      <c r="E2" s="58"/>
+      <c r="K2" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="64">
-        <f>COUNTIF(K8:K143,"Passed")</f>
+      <c r="L2" s="82">
+        <f>COUNTIF(K8:K145,"Passed")</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" ht="27" customHeight="1" spans="1:12">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="82">
+        <f>COUNTIF(K8:K145,"Failed")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="26" customHeight="1" spans="11:12">
+      <c r="K4" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="82">
+        <f>COUNTIF(K8:K145,"Not Executed")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="27" customHeight="1" spans="11:12">
+      <c r="K5" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="86">
+        <f>COUNTIF(K8:K145,"Out of Scope")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="34" customHeight="1" spans="11:12">
+      <c r="K6" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="88">
+        <f>SUM(L2:L5)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="29" customHeight="1" spans="1:12">
+      <c r="A7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="89" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" ht="47" customHeight="1" spans="1:12">
+      <c r="A8" s="13">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="91"/>
+      <c r="K8" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="93"/>
+    </row>
+    <row r="9" ht="25" customHeight="1" spans="1:12">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" ht="47" customHeight="1" spans="1:12">
+      <c r="A10" s="18">
+        <v>2</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="66" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" ht="27" customHeight="1" spans="1:12">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="64">
-        <f>COUNTIF(K8:K143,"Failed")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" ht="20" customHeight="1" spans="11:12">
-      <c r="K4" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="64">
-        <f>COUNTIF(K8:K143,"Not Executed")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="27" customHeight="1" spans="11:12">
-      <c r="K5" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="68">
-        <f>COUNTIF(K8:K143,"Out of Scope")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="34" customHeight="1" spans="11:12">
-      <c r="K6" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="70">
-        <f>SUM(L2:L5)</f>
+      <c r="F10" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="33" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" ht="20" customHeight="1" spans="1:12">
-      <c r="A7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="71" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" ht="40" customHeight="1" spans="1:12">
-      <c r="A8" s="12">
-        <v>1</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="73"/>
-      <c r="K8" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="75"/>
-    </row>
-    <row r="9" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
-    </row>
-    <row r="10" ht="39" customHeight="1" spans="1:12">
-      <c r="A10" s="17">
-        <v>2</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="77" t="s">
+      <c r="I10" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="79" t="s">
+      <c r="K10" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="80"/>
-    </row>
-    <row r="11" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-    </row>
-    <row r="12" ht="39" customHeight="1" spans="1:12">
-      <c r="A12" s="17">
+      <c r="L10" s="99" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" ht="25" customHeight="1" spans="1:12">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="101"/>
+    </row>
+    <row r="12" ht="47" customHeight="1" spans="1:12">
+      <c r="A12" s="18">
         <f>SUM(2+1)</f>
         <v>3</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="52" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="E12" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="F12" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="G12" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="74" t="s">
+      <c r="I12" s="96" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="33"/>
+      <c r="K12" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L12" s="80"/>
-    </row>
-    <row r="13" ht="39" customHeight="1" spans="1:12">
-      <c r="A13" s="17">
+      <c r="L12" s="36"/>
+    </row>
+    <row r="13" ht="47" customHeight="1" spans="1:12">
+      <c r="A13" s="18">
         <f t="shared" ref="A13:A20" si="0">SUM(A12+1)</f>
         <v>4</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="31" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="F13" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="H13" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="74" t="s">
+      <c r="I13" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="33"/>
+      <c r="K13" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="80"/>
-    </row>
-    <row r="14" ht="39" customHeight="1" spans="1:12">
-      <c r="A14" s="17">
+      <c r="L13" s="36"/>
+    </row>
+    <row r="14" ht="47" customHeight="1" spans="1:12">
+      <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="31" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="F14" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="74" t="s">
+      <c r="I14" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="33"/>
+      <c r="K14" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="80"/>
-    </row>
-    <row r="15" ht="39" customHeight="1" spans="1:12">
-      <c r="A15" s="17">
+      <c r="L14" s="36"/>
+    </row>
+    <row r="15" ht="47" customHeight="1" spans="1:12">
+      <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="31" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="F15" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="74" t="s">
+      <c r="I15" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="33"/>
+      <c r="K15" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="80"/>
-    </row>
-    <row r="16" ht="39" customHeight="1" spans="1:12">
-      <c r="A16" s="17">
+      <c r="L15" s="36"/>
+    </row>
+    <row r="16" ht="47" customHeight="1" spans="1:12">
+      <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="31" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="F16" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="31"/>
-      <c r="K16" s="74" t="s">
+      <c r="I16" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="K16" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="80"/>
-    </row>
-    <row r="17" ht="39" customHeight="1" spans="1:12">
-      <c r="A17" s="17">
+      <c r="L16" s="36"/>
+    </row>
+    <row r="17" ht="47" customHeight="1" spans="1:12">
+      <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="31" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="72" t="s">
+      <c r="F17" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="31"/>
-      <c r="K17" s="74" t="s">
+      <c r="I17" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="33"/>
+      <c r="K17" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L17" s="80"/>
-    </row>
-    <row r="18" ht="39" customHeight="1" spans="1:12">
-      <c r="A18" s="17">
+      <c r="L17" s="36"/>
+    </row>
+    <row r="18" ht="47" customHeight="1" spans="1:12">
+      <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="31" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="F18" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="31" t="s">
+      <c r="H18" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="74" t="s">
+      <c r="I18" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="33"/>
+      <c r="K18" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="80"/>
-    </row>
-    <row r="19" ht="39" customHeight="1" spans="1:12">
-      <c r="A19" s="17">
+      <c r="L18" s="36"/>
+    </row>
+    <row r="19" ht="47" customHeight="1" spans="1:12">
+      <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="31" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19" s="82" t="s">
+      <c r="H19" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="31"/>
-      <c r="K19" s="74" t="s">
+      <c r="I19" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" s="33"/>
+      <c r="K19" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="80"/>
-    </row>
-    <row r="20" ht="39" customHeight="1" spans="1:12">
-      <c r="A20" s="17">
+      <c r="L19" s="36"/>
+    </row>
+    <row r="20" ht="47" customHeight="1" spans="1:12">
+      <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="31" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="F20" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="83" t="s">
+      <c r="H20" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="J20" s="31"/>
-      <c r="K20" s="74" t="s">
+      <c r="I20" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="33"/>
+      <c r="K20" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="31"/>
-    </row>
-    <row r="21" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="33"/>
-    </row>
-    <row r="22" ht="39" customHeight="1" spans="1:12">
-      <c r="A22" s="17">
+      <c r="L20" s="33"/>
+    </row>
+    <row r="21" ht="25" customHeight="1" spans="1:12">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="35"/>
+    </row>
+    <row r="22" ht="47" customHeight="1" spans="1:12">
+      <c r="A22" s="18">
         <v>12</v>
       </c>
-      <c r="B22" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="28" t="s">
+      <c r="B22" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="C22" s="20"/>
+      <c r="D22" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="E22" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="56" t="s">
+      <c r="F22" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="I22" s="31" t="s">
+      <c r="G22" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="J22" s="31"/>
-      <c r="K22" s="74" t="s">
+      <c r="I22" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="33"/>
+      <c r="K22" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="31"/>
-    </row>
-    <row r="23" ht="39" customHeight="1" spans="1:12">
-      <c r="A23" s="17">
+      <c r="L22" s="33"/>
+    </row>
+    <row r="23" ht="47" customHeight="1" spans="1:12">
+      <c r="A23" s="18">
         <f t="shared" ref="A23:A30" si="1">SUM(A22+1)</f>
         <v>13</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="31" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="31" t="s">
+      <c r="F23" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="74" t="s">
+      <c r="G23" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="33"/>
+      <c r="K23" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L23" s="31"/>
-    </row>
-    <row r="24" ht="39" customHeight="1" spans="1:12">
-      <c r="A24" s="17">
+      <c r="L23" s="33"/>
+    </row>
+    <row r="24" ht="47" customHeight="1" spans="1:12">
+      <c r="A24" s="18">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="31" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="I24" s="31" t="s">
+      <c r="F24" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="74" t="s">
+      <c r="G24" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" s="33"/>
+      <c r="K24" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="31"/>
-    </row>
-    <row r="25" ht="39" customHeight="1" spans="1:12">
-      <c r="A25" s="17">
+      <c r="L24" s="33"/>
+    </row>
+    <row r="25" ht="47" customHeight="1" spans="1:12">
+      <c r="A25" s="18">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="31" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" s="57" t="s">
+      <c r="F25" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="I25" s="31" t="s">
+      <c r="G25" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="J25" s="31"/>
-      <c r="K25" s="74" t="s">
+      <c r="I25" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="J25" s="33"/>
+      <c r="K25" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="31"/>
-    </row>
-    <row r="26" ht="39" customHeight="1" spans="1:12">
-      <c r="A26" s="17">
+      <c r="L25" s="33"/>
+    </row>
+    <row r="26" ht="47" customHeight="1" spans="1:12">
+      <c r="A26" s="18">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="57" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="31" t="s">
+      <c r="F26" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="J26" s="31"/>
-      <c r="K26" s="74" t="s">
+      <c r="I26" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" s="33"/>
+      <c r="K26" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L26" s="31"/>
-    </row>
-    <row r="27" ht="39" customHeight="1" spans="1:12">
-      <c r="A27" s="17">
+      <c r="L26" s="33"/>
+    </row>
+    <row r="27" ht="47" customHeight="1" spans="1:12">
+      <c r="A27" s="18">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="31" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="G27" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" s="31" t="s">
+      <c r="F27" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="J27" s="31"/>
-      <c r="K27" s="74" t="s">
+      <c r="G27" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="J27" s="33"/>
+      <c r="K27" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L27" s="31"/>
-    </row>
-    <row r="28" ht="39" customHeight="1" spans="1:12">
-      <c r="A28" s="17">
+      <c r="L27" s="33"/>
+    </row>
+    <row r="28" ht="47" customHeight="1" spans="1:12">
+      <c r="A28" s="18">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="31" t="s">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="I28" s="31" t="s">
+      <c r="F28" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="J28" s="31"/>
-      <c r="K28" s="74" t="s">
+      <c r="G28" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" s="33"/>
+      <c r="K28" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L28" s="31"/>
-    </row>
-    <row r="29" ht="39" customHeight="1" spans="1:12">
-      <c r="A29" s="17">
+      <c r="L28" s="33"/>
+    </row>
+    <row r="29" ht="47" customHeight="1" spans="1:12">
+      <c r="A29" s="18">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" s="31" t="s">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="G29" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="57" t="s">
+      <c r="F29" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="I29" s="31" t="s">
+      <c r="G29" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="J29" s="31"/>
-      <c r="K29" s="74" t="s">
+      <c r="I29" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" s="33"/>
+      <c r="K29" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L29" s="31"/>
-    </row>
-    <row r="30" ht="39" customHeight="1" spans="1:12">
-      <c r="A30" s="17">
+      <c r="L29" s="33"/>
+    </row>
+    <row r="30" ht="47" customHeight="1" spans="1:12">
+      <c r="A30" s="18">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" s="31" t="s">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H30" s="57" t="s">
+      <c r="F30" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="I30" s="31" t="s">
+      <c r="G30" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="J30" s="31"/>
-      <c r="K30" s="74" t="s">
+      <c r="I30" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J30" s="33"/>
+      <c r="K30" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L30" s="31"/>
-    </row>
-    <row r="31" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="33"/>
-    </row>
-    <row r="32" ht="39" customHeight="1" spans="1:12">
-      <c r="A32" s="17">
+      <c r="L30" s="33"/>
+    </row>
+    <row r="31" ht="25" customHeight="1" spans="1:12">
+      <c r="A31" s="26"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="35"/>
+    </row>
+    <row r="32" ht="47" customHeight="1" spans="1:12">
+      <c r="A32" s="18">
         <f>SUM(20+1)</f>
         <v>21</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="31" t="s">
+      <c r="B32" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="G32" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H32" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="I32" s="31" t="s">
+      <c r="C32" s="20"/>
+      <c r="D32" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="J32" s="31"/>
-      <c r="K32" s="74" t="s">
+      <c r="G32" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="J32" s="33"/>
+      <c r="K32" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L32" s="31"/>
-    </row>
-    <row r="33" ht="39" customHeight="1" spans="1:12">
-      <c r="A33" s="17">
+      <c r="L32" s="33"/>
+    </row>
+    <row r="33" ht="47" customHeight="1" spans="1:12">
+      <c r="A33" s="18">
         <f>SUM(A32+1)</f>
         <v>22</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="31" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="G33" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" s="57" t="s">
+      <c r="F33" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="I33" s="31" t="s">
+      <c r="G33" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="J33" s="31"/>
-      <c r="K33" s="74" t="s">
+      <c r="I33" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="33"/>
+      <c r="K33" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L33" s="31"/>
-    </row>
-    <row r="34" ht="39" customHeight="1" spans="1:12">
-      <c r="A34" s="17">
+      <c r="L33" s="33"/>
+    </row>
+    <row r="34" ht="47" customHeight="1" spans="1:12">
+      <c r="A34" s="18">
         <f>SUM(A33+1)</f>
         <v>23</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H34" s="31" t="s">
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="I34" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="J34" s="31"/>
-      <c r="K34" s="74" t="s">
+      <c r="G34" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" s="33"/>
+      <c r="K34" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L34" s="31"/>
-    </row>
-    <row r="35" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A35" s="24"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-    </row>
-    <row r="36" ht="40" customHeight="1" spans="1:12">
-      <c r="A36" s="30">
+      <c r="L34" s="33"/>
+    </row>
+    <row r="35" ht="25" customHeight="1" spans="1:12">
+      <c r="A35" s="26"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="31"/>
+    </row>
+    <row r="36" ht="47" customHeight="1" spans="1:12">
+      <c r="A36" s="32">
         <f>SUM(23+1)</f>
         <v>24</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" s="52" t="s">
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="31" t="s">
+      <c r="E36" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="G36" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H36" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="I36" s="31" t="s">
+      <c r="F36" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J36" s="31"/>
-      <c r="K36" s="74" t="s">
+      <c r="G36" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="J36" s="33"/>
+      <c r="K36" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L36" s="31"/>
-    </row>
-    <row r="37" ht="40" customHeight="1" spans="1:12">
-      <c r="A37" s="30">
+      <c r="L36" s="33"/>
+    </row>
+    <row r="37" ht="47" customHeight="1" spans="1:12">
+      <c r="A37" s="32">
         <f>SUM(A36+1)</f>
         <v>25</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" s="31" t="s">
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="G37" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="I37" s="31" t="s">
+      <c r="F37" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="J37" s="31"/>
-      <c r="K37" s="74" t="s">
+      <c r="G37" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="I37" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J37" s="33"/>
+      <c r="K37" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L37" s="31"/>
-    </row>
-    <row r="38" ht="40" customHeight="1" spans="1:12">
-      <c r="A38" s="30">
+      <c r="L37" s="33"/>
+    </row>
+    <row r="38" ht="47" customHeight="1" spans="1:12">
+      <c r="A38" s="32">
         <f>SUM(A37+1)</f>
         <v>26</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="F38" s="31" t="s">
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="G38" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H38" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="I38" s="31" t="s">
+      <c r="F38" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="J38" s="31"/>
-      <c r="K38" s="74" t="s">
+      <c r="G38" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="J38" s="33"/>
+      <c r="K38" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L38" s="31"/>
-    </row>
-    <row r="39" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="33"/>
-    </row>
-    <row r="40" ht="38" customHeight="1" spans="1:12">
-      <c r="A40" s="34">
+      <c r="L38" s="33"/>
+    </row>
+    <row r="39" ht="25" customHeight="1" spans="1:12">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="35"/>
+    </row>
+    <row r="40" ht="47" customHeight="1" spans="1:12">
+      <c r="A40" s="36">
         <v>27</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="52" t="s">
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="F40" s="52" t="s">
+      <c r="E40" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="G40" s="31" t="s">
+      <c r="F40" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="H40" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="I40" s="31" t="s">
+      <c r="G40" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J40" s="31"/>
-      <c r="K40" s="74" t="s">
+      <c r="H40" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="J40" s="33"/>
+      <c r="K40" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L40" s="80"/>
-    </row>
-    <row r="41" ht="42" customHeight="1" spans="1:12">
-      <c r="A41" s="34">
+      <c r="L40" s="36"/>
+    </row>
+    <row r="41" ht="47" customHeight="1" spans="1:12">
+      <c r="A41" s="36">
         <f>SUM(A40+1)</f>
         <v>28</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="F41" s="52" t="s">
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="G41" s="31" t="s">
+      <c r="F41" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="H41" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="I41" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="J41" s="85" t="s">
+      <c r="H41" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="K41" s="79" t="s">
+      <c r="J41" s="106" t="s">
+        <v>135</v>
+      </c>
+      <c r="K41" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="L41" s="80"/>
-    </row>
-    <row r="42" ht="16" customHeight="1" spans="1:12">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="86"/>
-    </row>
-    <row r="43" ht="42" customHeight="1" spans="1:12">
-      <c r="A43" s="34">
+      <c r="L41" s="36"/>
+    </row>
+    <row r="42" ht="25" customHeight="1" spans="1:12">
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="107"/>
+      <c r="L42" s="41"/>
+    </row>
+    <row r="43" ht="47" customHeight="1" spans="1:12">
+      <c r="A43" s="43">
         <v>29</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="F43" s="31" t="s">
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="G43" s="31" t="s">
+      <c r="E43" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="G43" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="H43" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="I43" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="J43" s="31"/>
-      <c r="K43" s="74" t="s">
+      <c r="H43" s="75"/>
+      <c r="I43" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="J43" s="75"/>
+      <c r="K43" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L43" s="80"/>
-    </row>
-    <row r="44" ht="42" customHeight="1" spans="1:12">
-      <c r="A44" s="34">
+      <c r="L43" s="43"/>
+    </row>
+    <row r="44" ht="47" customHeight="1" spans="1:12">
+      <c r="A44" s="43">
+        <f>SUM(A43+1)</f>
         <v>30</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="52" t="s">
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="J44" s="75"/>
+      <c r="K44" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L44" s="43"/>
+    </row>
+    <row r="45" ht="47" customHeight="1" spans="1:12">
+      <c r="A45" s="43">
+        <f>SUM(A44+1)</f>
+        <v>31</v>
+      </c>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="75"/>
+      <c r="I45" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="J45" s="75"/>
+      <c r="K45" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L45" s="43"/>
+    </row>
+    <row r="46" ht="47" customHeight="1" spans="1:12">
+      <c r="A46" s="43">
+        <f>SUM(A45+1)</f>
+        <v>32</v>
+      </c>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F46" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="75"/>
+      <c r="I46" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="J46" s="75"/>
+      <c r="K46" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L46" s="43"/>
+    </row>
+    <row r="47" ht="47" customHeight="1" spans="1:12">
+      <c r="A47" s="43">
+        <f>SUM(A46+1)</f>
+        <v>33</v>
+      </c>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="F47" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="J47" s="75"/>
+      <c r="K47" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L47" s="43"/>
+    </row>
+    <row r="48" ht="47" customHeight="1" spans="1:12">
+      <c r="A48" s="43">
+        <f>SUM(A47+1)</f>
+        <v>34</v>
+      </c>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="G48" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="75"/>
+      <c r="I48" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="J48" s="75"/>
+      <c r="K48" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L48" s="43"/>
+    </row>
+    <row r="49" ht="47" customHeight="1" spans="1:12">
+      <c r="A49" s="43">
+        <f>SUM(A48+1)</f>
+        <v>35</v>
+      </c>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="J49" s="33"/>
+      <c r="K49" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L49" s="36"/>
+    </row>
+    <row r="50" ht="25" customHeight="1" spans="1:12">
+      <c r="A50" s="48"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="77"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="108"/>
+      <c r="L50" s="109"/>
+    </row>
+    <row r="51" ht="47" customHeight="1" spans="1:12">
+      <c r="A51" s="43">
+        <f>SUM(A49+1)</f>
+        <v>36</v>
+      </c>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I51" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="J51" s="33"/>
+      <c r="K51" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L51" s="36"/>
+    </row>
+    <row r="52" ht="47" customHeight="1" spans="1:12">
+      <c r="A52" s="43">
+        <f>SUM(A51+1)</f>
+        <v>37</v>
+      </c>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="G52" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I52" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="J52" s="33"/>
+      <c r="K52" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L52" s="36"/>
+    </row>
+    <row r="53" ht="25" customHeight="1" spans="1:12">
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="107"/>
+      <c r="L53" s="41"/>
+    </row>
+    <row r="54" ht="47" customHeight="1" spans="1:12">
+      <c r="A54" s="43">
+        <v>38</v>
+      </c>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="F54" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I54" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="J54" s="75"/>
+      <c r="K54" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L54" s="43"/>
+    </row>
+    <row r="55" ht="47" customHeight="1" spans="1:12">
+      <c r="A55" s="36">
+        <f>SUM(A54+1)</f>
+        <v>39</v>
+      </c>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="F55" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="G55" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I55" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="J55" s="33"/>
+      <c r="K55" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L55" s="36"/>
+    </row>
+    <row r="56" ht="47" customHeight="1" spans="1:12">
+      <c r="A56" s="36">
+        <f>SUM(A55+1)</f>
+        <v>40</v>
+      </c>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="F56" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="G56" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I56" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="J56" s="33"/>
+      <c r="K56" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L56" s="36"/>
+    </row>
+    <row r="57" ht="47" customHeight="1" spans="1:12">
+      <c r="A57" s="36">
+        <f>SUM(A56+1)</f>
+        <v>41</v>
+      </c>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="F57" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="G57" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I57" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="J57" s="33"/>
+      <c r="K57" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L57" s="36"/>
+    </row>
+    <row r="58" ht="47" customHeight="1" spans="1:12">
+      <c r="A58" s="36">
+        <f>SUM(A57+1)</f>
+        <v>42</v>
+      </c>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="F58" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="G58" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I58" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="J58" s="33"/>
+      <c r="K58" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L58" s="36"/>
+    </row>
+    <row r="59" ht="47" customHeight="1" spans="1:12">
+      <c r="A59" s="36">
+        <f>SUM(A58+1)</f>
+        <v>43</v>
+      </c>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="F59" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="G59" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I59" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="J59" s="33"/>
+      <c r="K59" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L59" s="36"/>
+    </row>
+    <row r="60" ht="25" customHeight="1" spans="1:12">
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="73"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="73"/>
+      <c r="K60" s="107"/>
+      <c r="L60" s="41"/>
+    </row>
+    <row r="61" ht="47" customHeight="1" spans="1:12">
+      <c r="A61" s="36">
+        <v>44</v>
+      </c>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="E61" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="G61" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I61" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="J61" s="33"/>
+      <c r="K61" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L61" s="36"/>
+    </row>
+    <row r="62" ht="47" customHeight="1" spans="1:12">
+      <c r="A62" s="36">
+        <f>SUM(A61+1)</f>
+        <v>45</v>
+      </c>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="G62" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I62" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="J62" s="33"/>
+      <c r="K62" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L62" s="36"/>
+    </row>
+    <row r="63" ht="47" customHeight="1" spans="1:12">
+      <c r="A63" s="36">
+        <f>SUM(A62+1)</f>
+        <v>46</v>
+      </c>
+      <c r="B63" s="55"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="F63" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="G63" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="I63" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="J63" s="33"/>
+      <c r="K63" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L63" s="36"/>
+    </row>
+    <row r="64" ht="47" customHeight="1" spans="1:12">
+      <c r="A64" s="36">
+        <f>SUM(A63+1)</f>
+        <v>47</v>
+      </c>
+      <c r="B64" s="56"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="F64" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="G64" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="J64" s="33"/>
+      <c r="K64" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L64" s="36"/>
+    </row>
+    <row r="65" ht="25" customHeight="1" spans="1:12">
+      <c r="A65" s="110"/>
+      <c r="B65" s="110"/>
+      <c r="C65" s="110"/>
+      <c r="D65" s="111"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="116"/>
+      <c r="G65" s="116"/>
+      <c r="H65" s="116"/>
+      <c r="I65" s="116"/>
+      <c r="J65" s="116"/>
+      <c r="K65" s="118"/>
+      <c r="L65" s="110"/>
+    </row>
+    <row r="66" ht="47" customHeight="1" spans="1:12">
+      <c r="A66" s="36">
+        <v>48</v>
+      </c>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="F66" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="G66" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I66" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="J66" s="33"/>
+      <c r="K66" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L66" s="36"/>
+    </row>
+    <row r="67" ht="47" customHeight="1" spans="1:12">
+      <c r="A67" s="36">
+        <f>SUM(A66+1)</f>
+        <v>49</v>
+      </c>
+      <c r="B67" s="55"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="F67" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="F44" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="G44" s="31" t="s">
+      <c r="G67" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="H44" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="I44" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="J44" s="31"/>
-      <c r="K44" s="74" t="s">
+      <c r="H67" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I67" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="J67" s="33"/>
+      <c r="K67" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L44" s="80"/>
-    </row>
-    <row r="45" ht="22" customHeight="1" spans="1:12">
-      <c r="A45" s="39"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
-    </row>
-    <row r="46" ht="42" customHeight="1" spans="1:12">
-      <c r="A46" s="34">
+      <c r="L67" s="36"/>
+    </row>
+    <row r="68" ht="47" customHeight="1" spans="1:12">
+      <c r="A68" s="36">
+        <f>SUM(A67+1)</f>
+        <v>50</v>
+      </c>
+      <c r="B68" s="55"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="F68" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="G68" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="F46" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="G46" s="31" t="s">
+      <c r="H68" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I68" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="J68" s="33"/>
+      <c r="K68" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L68" s="36"/>
+    </row>
+    <row r="69" ht="47" customHeight="1" spans="1:12">
+      <c r="A69" s="36">
+        <f>SUM(A68+1)</f>
+        <v>51</v>
+      </c>
+      <c r="B69" s="55"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="F69" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="G69" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="H46" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="J46" s="31"/>
-      <c r="K46" s="74" t="s">
+      <c r="H69" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I69" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="J69" s="33"/>
+      <c r="K69" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L46" s="80"/>
-    </row>
-    <row r="47" ht="42" customHeight="1" spans="1:12">
-      <c r="A47" s="34">
-        <f>SUM(A46+1)</f>
-        <v>32</v>
-      </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="F47" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="G47" s="31" t="s">
+      <c r="L69" s="36"/>
+    </row>
+    <row r="70" ht="47" customHeight="1" spans="1:12">
+      <c r="A70" s="36">
+        <f>SUM(A69+1)</f>
+        <v>52</v>
+      </c>
+      <c r="B70" s="56"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="66" t="s">
+        <v>200</v>
+      </c>
+      <c r="F70" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="G70" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="H47" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="I47" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="J47" s="31"/>
-      <c r="K47" s="74" t="s">
+      <c r="H70" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I70" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="J70" s="33"/>
+      <c r="K70" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L47" s="80"/>
-    </row>
-    <row r="48" ht="42" customHeight="1" spans="1:12">
-      <c r="A48" s="34">
-        <f>SUM(A47+1)</f>
-        <v>33</v>
-      </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="F48" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="G48" s="31" t="s">
+      <c r="L70" s="36"/>
+    </row>
+    <row r="71" ht="20" customHeight="1" spans="1:12">
+      <c r="A71" s="112"/>
+      <c r="B71" s="112"/>
+      <c r="C71" s="112"/>
+      <c r="D71" s="112"/>
+      <c r="E71" s="112"/>
+      <c r="F71" s="112"/>
+      <c r="G71" s="112"/>
+      <c r="H71" s="112"/>
+      <c r="I71" s="112"/>
+      <c r="J71" s="112"/>
+      <c r="K71" s="119"/>
+      <c r="L71" s="112"/>
+    </row>
+    <row r="72" ht="45" customHeight="1" spans="1:12">
+      <c r="A72" s="113">
+        <v>53</v>
+      </c>
+      <c r="B72" s="113"/>
+      <c r="C72" s="113"/>
+      <c r="D72" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="E72" s="117" t="s">
+        <v>204</v>
+      </c>
+      <c r="F72" s="117" t="s">
+        <v>205</v>
+      </c>
+      <c r="G72" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="H48" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="I48" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="J48" s="31"/>
-      <c r="K48" s="74" t="s">
+      <c r="H72" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I72" s="120" t="s">
+        <v>206</v>
+      </c>
+      <c r="J72" s="113"/>
+      <c r="K72" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L48" s="80"/>
-    </row>
-    <row r="49" ht="19" customHeight="1" spans="1:12">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="86"/>
-      <c r="L49" s="86"/>
-    </row>
-    <row r="50" ht="42" customHeight="1" spans="1:12">
-      <c r="A50" s="34">
-        <v>34</v>
-      </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E50" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="F50" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="G50" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="H50" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="I50" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="J50" s="31"/>
-      <c r="K50" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="L50" s="80"/>
-    </row>
-    <row r="51" ht="42" customHeight="1" spans="1:12">
-      <c r="A51" s="34">
-        <f>SUM(A50+1)</f>
-        <v>35</v>
-      </c>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="G51" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="I51" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="J51" s="31"/>
-      <c r="K51" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="L51" s="80"/>
-    </row>
-    <row r="52" ht="42" customHeight="1" spans="1:12">
-      <c r="A52" s="34">
-        <f>SUM(A51+1)</f>
-        <v>36</v>
-      </c>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="F52" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="G52" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="H52" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="I52" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="J52" s="31"/>
-      <c r="K52" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="L52" s="80"/>
-    </row>
-    <row r="53" ht="42" customHeight="1" spans="1:12">
-      <c r="A53" s="34">
-        <f>SUM(A52+1)</f>
-        <v>37</v>
-      </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="F53" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="G53" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="H53" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="I53" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="J53" s="31"/>
-      <c r="K53" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="L53" s="80"/>
-    </row>
-    <row r="54" ht="42" customHeight="1" spans="1:12">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="80"/>
-      <c r="L54" s="80"/>
-    </row>
-    <row r="55" ht="42" customHeight="1" spans="1:12">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="80"/>
-      <c r="L55" s="80"/>
-    </row>
-    <row r="56" ht="42" customHeight="1" spans="1:12">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="80"/>
-      <c r="L56" s="80"/>
-    </row>
-    <row r="57" ht="42" customHeight="1" spans="1:12">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="80"/>
-      <c r="L57" s="80"/>
-    </row>
-    <row r="58" ht="42" customHeight="1" spans="1:12">
-      <c r="A58" s="34"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="80"/>
-      <c r="L58" s="80"/>
-    </row>
-    <row r="59" ht="42" customHeight="1" spans="1:12">
-      <c r="A59" s="34"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="80"/>
-    </row>
-    <row r="60" ht="42" customHeight="1" spans="1:12">
-      <c r="A60" s="34"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="80"/>
-      <c r="L60" s="80"/>
-    </row>
-    <row r="61" ht="42" customHeight="1" spans="1:12">
-      <c r="A61" s="34"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="80"/>
-    </row>
-    <row r="62" ht="42" customHeight="1" spans="1:12">
-      <c r="A62" s="34"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="80"/>
-      <c r="L62" s="80"/>
-    </row>
-    <row r="63" ht="42" customHeight="1" spans="1:12">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="80"/>
-      <c r="L63" s="80"/>
-    </row>
-    <row r="64" ht="42" customHeight="1" spans="1:12">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="80"/>
-      <c r="L64" s="80"/>
-    </row>
-    <row r="65" ht="42" customHeight="1" spans="1:12">
-      <c r="A65" s="34"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="80"/>
-      <c r="L65" s="80"/>
-    </row>
-    <row r="66" ht="42" customHeight="1" spans="1:12">
-      <c r="A66" s="34"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="52"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="80"/>
-      <c r="L66" s="80"/>
-    </row>
-    <row r="67" ht="42" customHeight="1" spans="1:12">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="80"/>
-      <c r="L67" s="80"/>
-    </row>
-    <row r="68" ht="42" customHeight="1" spans="1:12">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="80"/>
-      <c r="L68" s="80"/>
-    </row>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
+      <c r="L72" s="113"/>
+    </row>
+    <row r="73" ht="45" customHeight="1" spans="1:12">
+      <c r="A73" s="113">
+        <f>SUM(A72+1)</f>
+        <v>54</v>
+      </c>
+      <c r="B73" s="113"/>
+      <c r="C73" s="113"/>
+      <c r="D73" s="113"/>
+      <c r="E73" s="113"/>
+      <c r="F73" s="117" t="s">
+        <v>207</v>
+      </c>
+      <c r="G73" s="113" t="s">
+        <v>208</v>
+      </c>
+      <c r="H73" s="113"/>
+      <c r="I73" s="113"/>
+      <c r="J73" s="113"/>
+      <c r="K73" s="114"/>
+      <c r="L73" s="113"/>
+    </row>
+    <row r="74" ht="45" customHeight="1" spans="1:12">
+      <c r="A74" s="113"/>
+      <c r="B74" s="113"/>
+      <c r="C74" s="113"/>
+      <c r="D74" s="113"/>
+      <c r="E74" s="113"/>
+      <c r="F74" s="113"/>
+      <c r="G74" s="113"/>
+      <c r="H74" s="113"/>
+      <c r="I74" s="113"/>
+      <c r="J74" s="113"/>
+      <c r="K74" s="114"/>
+      <c r="L74" s="113"/>
+    </row>
+    <row r="75" ht="45" customHeight="1" spans="1:12">
+      <c r="A75" s="113"/>
+      <c r="B75" s="113"/>
+      <c r="C75" s="113"/>
+      <c r="D75" s="113"/>
+      <c r="E75" s="113"/>
+      <c r="F75" s="113"/>
+      <c r="G75" s="113"/>
+      <c r="H75" s="113"/>
+      <c r="I75" s="113"/>
+      <c r="J75" s="113"/>
+      <c r="K75" s="114"/>
+      <c r="L75" s="113"/>
+    </row>
+    <row r="76" ht="45" customHeight="1" spans="1:12">
+      <c r="A76" s="113"/>
+      <c r="B76" s="113"/>
+      <c r="C76" s="113"/>
+      <c r="D76" s="113"/>
+      <c r="E76" s="113"/>
+      <c r="F76" s="113"/>
+      <c r="G76" s="113"/>
+      <c r="H76" s="113"/>
+      <c r="I76" s="113"/>
+      <c r="J76" s="113"/>
+      <c r="K76" s="114"/>
+      <c r="L76" s="113"/>
+    </row>
+    <row r="77" ht="45" customHeight="1" spans="11:11">
+      <c r="K77" s="121"/>
+    </row>
+    <row r="78" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K78" s="121"/>
+    </row>
+    <row r="79" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K79" s="121"/>
+    </row>
+    <row r="80" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K80" s="121"/>
+    </row>
+    <row r="81" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K81" s="121"/>
+    </row>
+    <row r="82" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K82" s="121"/>
+    </row>
+    <row r="83" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K83" s="121"/>
+    </row>
+    <row r="84" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K84" s="121"/>
+    </row>
+    <row r="85" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K85" s="121"/>
+    </row>
+    <row r="86" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K86" s="121"/>
+    </row>
+    <row r="87" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K87" s="121"/>
+    </row>
+    <row r="88" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K88" s="121"/>
+    </row>
+    <row r="89" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K89" s="121"/>
+    </row>
+    <row r="90" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K90" s="121"/>
+    </row>
+    <row r="91" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K91" s="121"/>
+    </row>
+    <row r="92" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K92" s="121"/>
+    </row>
+    <row r="93" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K93" s="121"/>
+    </row>
+    <row r="94" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K94" s="121"/>
+    </row>
+    <row r="95" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K95" s="121"/>
+    </row>
+    <row r="96" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K96" s="121"/>
+    </row>
+    <row r="97" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K97" s="121"/>
+    </row>
+    <row r="98" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K98" s="121"/>
+    </row>
+    <row r="99" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K99" s="121"/>
+    </row>
+    <row r="100" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K100" s="121"/>
+    </row>
+    <row r="101" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K101" s="121"/>
+    </row>
+    <row r="102" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K102" s="121"/>
+    </row>
+    <row r="103" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K103" s="121"/>
+    </row>
+    <row r="104" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K104" s="121"/>
+    </row>
+    <row r="105" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K105" s="121"/>
+    </row>
+    <row r="106" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K106" s="121"/>
+    </row>
+    <row r="107" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K107" s="121"/>
+    </row>
+    <row r="108" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K108" s="121"/>
+    </row>
+    <row r="109" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K109" s="121"/>
+    </row>
+    <row r="110" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K110" s="121"/>
+    </row>
+    <row r="111" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K111" s="121"/>
+    </row>
+    <row r="112" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K112" s="121"/>
+    </row>
+    <row r="113" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K113" s="121"/>
+    </row>
+    <row r="114" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K114" s="121"/>
+    </row>
+    <row r="115" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K115" s="121"/>
+    </row>
+    <row r="116" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K116" s="121"/>
+    </row>
+    <row r="117" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K117" s="121"/>
+    </row>
+    <row r="118" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K118" s="121"/>
+    </row>
+    <row r="119" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K119" s="121"/>
+    </row>
+    <row r="120" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K120" s="121"/>
+    </row>
+    <row r="121" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K121" s="121"/>
+    </row>
+    <row r="122" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K122" s="121"/>
+    </row>
+    <row r="123" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K123" s="121"/>
+    </row>
+    <row r="124" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K124" s="121"/>
+    </row>
+    <row r="125" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K125" s="121"/>
+    </row>
+    <row r="126" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K126" s="121"/>
+    </row>
+    <row r="127" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K127" s="121"/>
+    </row>
+    <row r="128" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K128" s="121"/>
+    </row>
+    <row r="129" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K129" s="121"/>
+    </row>
+    <row r="130" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K130" s="121"/>
+    </row>
+    <row r="131" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K131" s="121"/>
+    </row>
+    <row r="132" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K132" s="121"/>
+    </row>
+    <row r="133" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K133" s="121"/>
+    </row>
+    <row r="134" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K134" s="121"/>
+    </row>
+    <row r="135" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K135" s="121"/>
+    </row>
+    <row r="136" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K136" s="121"/>
+    </row>
+    <row r="137" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K137" s="121"/>
+    </row>
+    <row r="138" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K138" s="121"/>
+    </row>
+    <row r="139" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K139" s="121"/>
+    </row>
+    <row r="140" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K140" s="121"/>
+    </row>
+    <row r="141" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K141" s="121"/>
+    </row>
+    <row r="142" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K142" s="121"/>
+    </row>
+    <row r="143" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K143" s="121"/>
+    </row>
+    <row r="144" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K144" s="121"/>
+    </row>
+    <row r="145" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K145" s="121"/>
+    </row>
+    <row r="146" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K146" s="121"/>
+    </row>
+    <row r="147" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K147" s="121"/>
+    </row>
+    <row r="148" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K148" s="121"/>
+    </row>
+    <row r="149" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K149" s="121"/>
+    </row>
+    <row r="150" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K150" s="121"/>
+    </row>
+    <row r="151" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K151" s="121"/>
+    </row>
+    <row r="152" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K152" s="121"/>
+    </row>
+    <row r="153" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K153" s="121"/>
+    </row>
+    <row r="154" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K154" s="121"/>
+    </row>
+    <row r="155" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K155" s="121"/>
+    </row>
+    <row r="156" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K156" s="121"/>
+    </row>
+    <row r="157" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K157" s="121"/>
+    </row>
+    <row r="158" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K158" s="121"/>
+    </row>
+    <row r="159" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K159" s="121"/>
+    </row>
+    <row r="160" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K160" s="121"/>
+    </row>
+    <row r="161" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K161" s="121"/>
+    </row>
+    <row r="162" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K162" s="121"/>
+    </row>
+    <row r="163" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K163" s="121"/>
+    </row>
+    <row r="164" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K164" s="121"/>
+    </row>
+    <row r="165" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K165" s="121"/>
+    </row>
+    <row r="166" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K166" s="121"/>
+    </row>
+    <row r="167" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K167" s="121"/>
+    </row>
+    <row r="168" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K168" s="121"/>
+    </row>
+    <row r="169" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K169" s="121"/>
+    </row>
+    <row r="170" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K170" s="121"/>
+    </row>
+    <row r="171" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K171" s="121"/>
+    </row>
+    <row r="172" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K172" s="121"/>
+    </row>
+    <row r="173" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K173" s="121"/>
+    </row>
+    <row r="174" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K174" s="121"/>
+    </row>
+    <row r="175" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K175" s="121"/>
+    </row>
+    <row r="176" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K176" s="121"/>
+    </row>
+    <row r="177" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K177" s="121"/>
+    </row>
+    <row r="178" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K178" s="121"/>
+    </row>
+    <row r="179" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K179" s="121"/>
+    </row>
+    <row r="180" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K180" s="121"/>
+    </row>
+    <row r="181" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K181" s="121"/>
+    </row>
+    <row r="182" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K182" s="121"/>
+    </row>
+    <row r="183" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K183" s="121"/>
+    </row>
+    <row r="184" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K184" s="121"/>
+    </row>
+    <row r="185" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K185" s="121"/>
+    </row>
+    <row r="186" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K186" s="121"/>
+    </row>
+    <row r="187" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K187" s="121"/>
+    </row>
+    <row r="188" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K188" s="121"/>
+    </row>
+    <row r="189" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K189" s="121"/>
+    </row>
+    <row r="190" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K190" s="121"/>
+    </row>
+    <row r="191" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K191" s="121"/>
+    </row>
+    <row r="192" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K192" s="121"/>
+    </row>
+    <row r="193" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K193" s="121"/>
+    </row>
+    <row r="194" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K194" s="121"/>
+    </row>
+    <row r="195" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K195" s="121"/>
+    </row>
+    <row r="196" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K196" s="121"/>
+    </row>
+    <row r="197" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K197" s="121"/>
+    </row>
+    <row r="198" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K198" s="121"/>
+    </row>
+    <row r="199" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K199" s="121"/>
+    </row>
+    <row r="200" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K200" s="121"/>
+    </row>
+    <row r="201" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K201" s="121"/>
+    </row>
+    <row r="202" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K202" s="121"/>
+    </row>
+    <row r="203" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K203" s="121"/>
+    </row>
+    <row r="204" ht="13.5" customHeight="1" spans="11:11">
+      <c r="K204" s="121"/>
+    </row>
     <row r="205" ht="13.5" customHeight="1"/>
     <row r="206" ht="13.5" customHeight="1"/>
     <row r="207" ht="13.5" customHeight="1"/>
@@ -4736,8 +5607,10 @@
     <row r="971" ht="13.5" customHeight="1"/>
     <row r="972" ht="13.5" customHeight="1"/>
     <row r="973" ht="13.5" customHeight="1"/>
+    <row r="974" ht="13.5" customHeight="1"/>
+    <row r="975" ht="13.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="34">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A2:B2"/>
@@ -4747,25 +5620,34 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B43:B49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B66:B70"/>
     <mergeCell ref="C12:C20"/>
     <mergeCell ref="C22:C30"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C43:C49"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="C66:C70"/>
     <mergeCell ref="D12:D20"/>
     <mergeCell ref="D22:D30"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="D36:D38"/>
     <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="D43:D49"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D54:D59"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="D66:D70"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="K8 K10 K34 K40 K41 K45 K46 K47 K48 K50 K51 K52 K53 K12:K20 K22:K30 K32:K33 K36:K37 K38:K39 K43:K44">
+    <dataValidation type="list" allowBlank="1" sqref="K8 K10 K34 K40 K41 K43 K49 K50 K53 K59 K61 K62 K63 K64 K66 K67 K68 K69 K70 K72 K12:K20 K22:K30 K32:K33 K36:K37 K38:K39 K44:K45 K46:K48 K51:K52 K54:K58">
       <formula1>"Passed,Failed,Not Executed,Out of Scope"</formula1>
     </dataValidation>
   </dataValidations>
